--- a/матметоды+анализданных/УНИВЕРСИТЕТЫ=АНГЛИЯ_ВЫВОДЫ.xlsx
+++ b/матметоды+анализданных/УНИВЕРСИТЕТЫ=АНГЛИЯ_ВЫВОДЫ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work 3\works\матметоды+анализданных\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="16125" windowHeight="5670" activeTab="3"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="16125" windowHeight="5670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="ТАБЛИЦЫ" sheetId="3" r:id="rId3"/>
     <sheet name="Выводы" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -626,7 +631,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,12 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -783,6 +782,12 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,12 +798,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -813,7 +821,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13630195451976473"/>
+          <c:y val="5.6637157617418971E-2"/>
+          <c:w val="0.61336853790710155"/>
+          <c:h val="0.82984473465826125"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="percentStacked"/>
@@ -825,9 +843,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$B$11:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ  &lt;=25</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> &lt;=25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -880,6 +901,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -888,9 +914,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$C$11:$C$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 26 - 30</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26 - 30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -943,6 +972,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -951,9 +985,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$D$11:$D$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 31-35</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31-35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1006,6 +1043,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1014,9 +1056,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$E$11:$E$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 36-40</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36-40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1069,6 +1114,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1077,9 +1127,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$F$11:$F$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 41-45</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41-45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1132,6 +1185,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1140,9 +1198,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$G$11:$G$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 46-50</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46-50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1195,6 +1256,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1203,9 +1269,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$H$11:$H$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 51-55</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1258,6 +1327,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1266,9 +1340,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$I$11:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 56-60</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56-60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1321,6 +1398,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1329,9 +1411,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$J$11:$J$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 61-65</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61-65</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1384,6 +1469,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1392,9 +1482,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$K$11:$K$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ  &gt;=66</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> &gt;=66</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1447,6 +1540,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9960-42C9-B0AD-43BA8AD6FA9C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1468,6 +1566,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1513,7 +1612,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1540,9 +1639,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$B$11:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ  &lt;=25</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> &lt;=25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1595,6 +1697,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1603,9 +1710,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$C$11:$C$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 26 - 30</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26 - 30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1658,6 +1768,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1666,9 +1781,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$D$11:$D$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 31-35</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31-35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1721,6 +1839,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1729,9 +1852,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$E$11:$E$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 36-40</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36-40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1784,6 +1910,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1792,9 +1923,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$F$11:$F$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 41-45</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41-45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1847,6 +1981,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1855,9 +1994,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$G$11:$G$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 46-50</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46-50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1910,6 +2052,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1918,9 +2065,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$H$11:$H$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 51-55</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1973,6 +2123,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1981,9 +2136,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$I$11:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 56-60</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56-60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2036,6 +2194,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2044,9 +2207,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$J$11:$J$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ 61-65</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61-65</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2099,6 +2265,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2107,9 +2278,12 @@
             <c:strRef>
               <c:f>ТАБЛИЦЫ!$K$11:$K$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ  &gt;=66</c:v>
+                  <c:v>ВОЗРАСТНЫЕ КАТЕГОРИИ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> &gt;=66</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2162,6 +2336,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9C23-413B-8981-955F10AF947B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2183,6 +2362,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2232,15 +2412,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>5953</xdr:rowOff>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>386953</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>267890</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2342,7 +2522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2377,7 +2557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2633,6438 +2813,6438 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14">
-        <v>5</v>
-      </c>
-      <c r="J2" s="14">
-        <v>5</v>
-      </c>
-      <c r="K2" s="14">
-        <v>5</v>
-      </c>
-      <c r="L2" s="15">
-        <f>SUM(B2:K2)</f>
+      <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13">
+        <f t="shared" ref="L2:L33" si="0">SUM(B2:K2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="14">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="D3" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="14">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14">
-        <v>5</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>5</v>
+      </c>
+      <c r="K3" s="12">
         <v>0</v>
       </c>
-      <c r="L3" s="15">
-        <f>SUM(B3:K3)</f>
+      <c r="L3" s="13">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="14">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
         <v>10</v>
       </c>
-      <c r="F4" s="14">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14">
-        <v>5</v>
-      </c>
-      <c r="I4" s="14">
-        <v>5</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
         <v>10</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>0</v>
       </c>
-      <c r="L4" s="15">
-        <f>SUM(B4:K4)</f>
+      <c r="L4" s="13">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="14">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
-        <v>5</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="J5" s="12">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
         <v>10</v>
       </c>
-      <c r="L5" s="15">
-        <f>SUM(B5:K5)</f>
+      <c r="L5" s="13">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>0</v>
       </c>
-      <c r="C6" s="14">
-        <v>5</v>
-      </c>
-      <c r="D6" s="14">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14">
-        <v>5</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="C6" s="12">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="14">
-        <v>5</v>
-      </c>
-      <c r="I6" s="14">
-        <v>5</v>
-      </c>
-      <c r="J6" s="14">
-        <v>5</v>
-      </c>
-      <c r="K6" s="14">
-        <v>5</v>
-      </c>
-      <c r="L6" s="15">
-        <f>SUM(B6:K6)</f>
+      <c r="H6" s="12">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12">
+        <v>5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>5</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>10</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>15</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="14">
-        <v>5</v>
-      </c>
-      <c r="K7" s="14">
+      <c r="J7" s="12">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12">
         <v>0</v>
       </c>
-      <c r="L7" s="15">
-        <f>SUM(B7:K7)</f>
+      <c r="L7" s="13">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>15</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <v>10</v>
       </c>
-      <c r="K8" s="14">
-        <v>5</v>
-      </c>
-      <c r="L8" s="15">
-        <f>SUM(B8:K8)</f>
+      <c r="K8" s="12">
+        <v>5</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>0</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12">
         <v>15</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>15</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <v>10</v>
       </c>
-      <c r="K9" s="14">
-        <v>5</v>
-      </c>
-      <c r="L9" s="15">
-        <f>SUM(B9:K9)</f>
+      <c r="K9" s="12">
+        <v>5</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>10</v>
       </c>
-      <c r="E10" s="14">
-        <v>5</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
         <v>15</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>15</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>15</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <v>10</v>
       </c>
-      <c r="J10" s="14">
-        <v>5</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="J10" s="12">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12">
         <v>0</v>
       </c>
-      <c r="L10" s="15">
-        <f>SUM(B10:K10)</f>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>10</v>
       </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12">
         <v>10</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>15</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>20</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <v>10</v>
       </c>
-      <c r="J11" s="14">
-        <v>5</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="J11" s="12">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12">
         <v>0</v>
       </c>
-      <c r="L11" s="15">
-        <f>SUM(B11:K11)</f>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
-      <c r="C12" s="14">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14">
-        <v>5</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="C12" s="12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12">
         <v>15</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>15</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>15</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>10</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <v>10</v>
       </c>
-      <c r="J12" s="14">
-        <v>5</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="J12" s="12">
+        <v>5</v>
+      </c>
+      <c r="K12" s="12">
         <v>0</v>
       </c>
-      <c r="L12" s="15">
-        <f>SUM(B12:K12)</f>
+      <c r="L12" s="13">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="12">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12">
         <v>10</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>10</v>
       </c>
-      <c r="F13" s="14">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="12">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12">
         <v>10</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>15</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>15</v>
       </c>
-      <c r="J13" s="14">
-        <v>5</v>
-      </c>
-      <c r="K13" s="14">
-        <v>5</v>
-      </c>
-      <c r="L13" s="15">
-        <f>SUM(B13:K13)</f>
+      <c r="J13" s="12">
+        <v>5</v>
+      </c>
+      <c r="K13" s="12">
+        <v>5</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C14" s="12">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12">
         <v>10</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>15</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>15</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>25</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <v>10</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <v>0</v>
       </c>
-      <c r="L14" s="15">
-        <f>SUM(B14:K14)</f>
+      <c r="L14" s="13">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="14">
-        <v>5</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="12">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12">
         <v>10</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>15</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>15</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>15</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>20</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>10</v>
       </c>
-      <c r="J15" s="14">
-        <v>5</v>
-      </c>
-      <c r="K15" s="14">
-        <v>5</v>
-      </c>
-      <c r="L15" s="15">
-        <f>SUM(B15:K15)</f>
+      <c r="J15" s="12">
+        <v>5</v>
+      </c>
+      <c r="K15" s="12">
+        <v>5</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>0</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>10</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>15</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>15</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>10</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>10</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>15</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <v>15</v>
       </c>
-      <c r="J16" s="14">
-        <v>5</v>
-      </c>
-      <c r="K16" s="14">
-        <v>5</v>
-      </c>
-      <c r="L16" s="15">
-        <f>SUM(B16:K16)</f>
+      <c r="J16" s="12">
+        <v>5</v>
+      </c>
+      <c r="K16" s="12">
+        <v>5</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>0</v>
       </c>
-      <c r="C17" s="14">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="12">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12">
         <v>10</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>10</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>15</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>25</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>20</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>15</v>
       </c>
-      <c r="J17" s="14">
-        <v>5</v>
-      </c>
-      <c r="K17" s="14">
+      <c r="J17" s="12">
+        <v>5</v>
+      </c>
+      <c r="K17" s="12">
         <v>0</v>
       </c>
-      <c r="L17" s="15">
-        <f>SUM(B17:K17)</f>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="14">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="12">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12">
         <v>10</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>15</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>10</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>20</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>20</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>15</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <v>15</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <v>0</v>
       </c>
-      <c r="L18" s="15">
-        <f>SUM(B18:K18)</f>
+      <c r="L18" s="13">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="14">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="12">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>20</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>25</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>20</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>15</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>15</v>
       </c>
-      <c r="I19" s="14">
-        <v>5</v>
-      </c>
-      <c r="J19" s="14">
-        <v>5</v>
-      </c>
-      <c r="K19" s="14">
+      <c r="I19" s="12">
+        <v>5</v>
+      </c>
+      <c r="J19" s="12">
+        <v>5</v>
+      </c>
+      <c r="K19" s="12">
         <v>10</v>
       </c>
-      <c r="L19" s="15">
-        <f>SUM(B19:K19)</f>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>0</v>
       </c>
-      <c r="C20" s="14">
-        <v>5</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="12">
+        <v>5</v>
+      </c>
+      <c r="D20" s="12">
         <v>20</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>25</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>25</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>20</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>20</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="12">
         <v>10</v>
       </c>
-      <c r="J20" s="14">
-        <v>5</v>
-      </c>
-      <c r="K20" s="14">
+      <c r="J20" s="12">
+        <v>5</v>
+      </c>
+      <c r="K20" s="12">
         <v>0</v>
       </c>
-      <c r="L20" s="15">
-        <f>SUM(B20:K20)</f>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>0</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>10</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>20</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>15</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>20</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>15</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>20</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <v>20</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <v>15</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="12">
         <v>30</v>
       </c>
-      <c r="L21" s="15">
-        <f>SUM(B21:K21)</f>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="14">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="12">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
         <v>15</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>30</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>30</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>25</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>25</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <v>15</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <v>10</v>
       </c>
-      <c r="J22" s="14">
-        <v>5</v>
-      </c>
-      <c r="K22" s="14">
-        <v>5</v>
-      </c>
-      <c r="L22" s="15">
-        <f>SUM(B22:K22)</f>
+      <c r="J22" s="12">
+        <v>5</v>
+      </c>
+      <c r="K22" s="12">
+        <v>5</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>0</v>
       </c>
-      <c r="C23" s="14">
-        <v>5</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="12">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12">
         <v>25</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>10</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>25</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>30</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>35</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="12">
         <v>25</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="12">
         <v>10</v>
       </c>
-      <c r="K23" s="14">
-        <v>5</v>
-      </c>
-      <c r="L23" s="15">
-        <f>SUM(B23:K23)</f>
+      <c r="K23" s="12">
+        <v>5</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>0</v>
       </c>
-      <c r="C24" s="14">
-        <v>5</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="12">
+        <v>5</v>
+      </c>
+      <c r="D24" s="12">
         <v>15</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>30</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>30</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>25</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <v>25</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="12">
         <v>20</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <v>15</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="12">
         <v>10</v>
       </c>
-      <c r="L24" s="15">
-        <f>SUM(B24:K24)</f>
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>0</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>15</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>20</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>30</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>20</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>40</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="12">
         <v>35</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <v>10</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="12">
         <v>0</v>
       </c>
-      <c r="L25" s="15">
-        <f>SUM(B25:K25)</f>
+      <c r="L25" s="13">
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>0</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>10</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>25</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>30</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>20</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>25</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>30</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="12">
         <v>30</v>
       </c>
-      <c r="J26" s="14">
-        <v>5</v>
-      </c>
-      <c r="K26" s="14">
-        <v>5</v>
-      </c>
-      <c r="L26" s="15">
-        <f>SUM(B26:K26)</f>
+      <c r="J26" s="12">
+        <v>5</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>0</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>10</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>20</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>25</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>25</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>40</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>30</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <v>30</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <v>10</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="12">
         <v>0</v>
       </c>
-      <c r="L27" s="15">
-        <f>SUM(B27:K27)</f>
+      <c r="L27" s="13">
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>10</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>30</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>20</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>30</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>35</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>30</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>20</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <v>10</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <v>10</v>
       </c>
-      <c r="K28" s="14">
-        <v>5</v>
-      </c>
-      <c r="L28" s="15">
-        <f>SUM(B28:K28)</f>
+      <c r="K28" s="12">
+        <v>5</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="14">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14">
-        <v>5</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="B29" s="12">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12">
         <v>10</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>25</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <v>30</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>40</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <v>40</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <v>35</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <v>20</v>
       </c>
-      <c r="K29" s="14">
-        <v>5</v>
-      </c>
-      <c r="L29" s="15">
-        <f>SUM(B29:K29)</f>
+      <c r="K29" s="12">
+        <v>5</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="14">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="12">
+        <v>5</v>
+      </c>
+      <c r="C30" s="12">
         <v>30</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>45</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>25</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>35</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>25</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>15</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <v>20</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>15</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="12">
         <v>0</v>
       </c>
-      <c r="L30" s="15">
-        <f>SUM(B30:K30)</f>
+      <c r="L30" s="13">
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="14">
-        <v>5</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="12">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12">
         <v>15</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>35</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>30</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>30</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>25</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="12">
         <v>25</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <v>30</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>15</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="12">
         <v>10</v>
       </c>
-      <c r="L31" s="15">
-        <f>SUM(B31:K31)</f>
+      <c r="L31" s="13">
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>0</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>25</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>30</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>25</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <v>30</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>30</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>45</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <v>25</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="12">
         <v>10</v>
       </c>
-      <c r="K32" s="14">
-        <v>5</v>
-      </c>
-      <c r="L32" s="15">
-        <f>SUM(B32:K32)</f>
+      <c r="K32" s="12">
+        <v>5</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>0</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>15</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>15</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>40</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>45</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>35</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>50</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <v>25</v>
       </c>
-      <c r="J33" s="14">
-        <v>5</v>
-      </c>
-      <c r="K33" s="14">
-        <v>5</v>
-      </c>
-      <c r="L33" s="15">
-        <f>SUM(B33:K33)</f>
+      <c r="J33" s="12">
+        <v>5</v>
+      </c>
+      <c r="K33" s="12">
+        <v>5</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>0</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>15</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>15</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>30</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>40</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>45</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <v>45</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="12">
         <v>50</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="12">
         <v>20</v>
       </c>
-      <c r="K34" s="14">
-        <v>5</v>
-      </c>
-      <c r="L34" s="15">
-        <f>SUM(B34:K34)</f>
+      <c r="K34" s="12">
+        <v>5</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" ref="L34:L65" si="1">SUM(B34:K34)</f>
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="18">
         <v>10</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>15</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>35</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>30</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="18">
         <v>40</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>50</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>55</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>25</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="18">
         <v>10</v>
       </c>
-      <c r="K35" s="20">
-        <v>5</v>
-      </c>
-      <c r="L35" s="21">
-        <f>SUM(B35:K35)</f>
+      <c r="K35" s="18">
+        <v>5</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="20">
-        <v>5</v>
-      </c>
-      <c r="C36" s="20">
+      <c r="B36" s="18">
+        <v>5</v>
+      </c>
+      <c r="C36" s="18">
         <v>25</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>30</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>35</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="18">
         <v>40</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="18">
         <v>45</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="18">
         <v>35</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>30</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="18">
         <v>15</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="18">
         <v>20</v>
       </c>
-      <c r="L36" s="21">
-        <f>SUM(B36:K36)</f>
+      <c r="L36" s="19">
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="18">
         <v>0</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>10</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>20</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>25</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>30</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>40</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>50</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>35</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="18">
         <v>30</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="18">
         <v>50</v>
       </c>
-      <c r="L37" s="21">
-        <f>SUM(B37:K37)</f>
+      <c r="L37" s="19">
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="18">
         <v>0</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>15</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="18">
         <v>10</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="18">
         <v>30</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="18">
         <v>25</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="18">
         <v>40</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="18">
         <v>45</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="18">
         <v>35</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="18">
         <v>30</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="18">
         <v>60</v>
       </c>
-      <c r="L38" s="21">
-        <f>SUM(B38:K38)</f>
+      <c r="L38" s="19">
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="20">
-        <v>5</v>
-      </c>
-      <c r="C39" s="20">
+      <c r="B39" s="18">
+        <v>5</v>
+      </c>
+      <c r="C39" s="18">
         <v>25</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="18">
         <v>60</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="18">
         <v>65</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="18">
         <v>40</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="18">
         <v>35</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="18">
         <v>30</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="18">
         <v>20</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="18">
         <v>10</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="18">
         <v>0</v>
       </c>
-      <c r="L39" s="21">
-        <f>SUM(B39:K39)</f>
+      <c r="L39" s="19">
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="20">
-        <v>5</v>
-      </c>
-      <c r="C40" s="20">
+      <c r="B40" s="18">
+        <v>5</v>
+      </c>
+      <c r="C40" s="18">
         <v>15</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>25</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>55</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="18">
         <v>45</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="18">
         <v>45</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>55</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>30</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="18">
         <v>15</v>
       </c>
-      <c r="K40" s="20">
-        <v>5</v>
-      </c>
-      <c r="L40" s="21">
-        <f>SUM(B40:K40)</f>
+      <c r="K40" s="18">
+        <v>5</v>
+      </c>
+      <c r="L40" s="19">
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="20">
-        <v>5</v>
-      </c>
-      <c r="C41" s="20">
+      <c r="B41" s="18">
+        <v>5</v>
+      </c>
+      <c r="C41" s="18">
         <v>10</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="18">
         <v>35</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="18">
         <v>40</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="18">
         <v>40</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="18">
         <v>45</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="18">
         <v>50</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="18">
         <v>50</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="18">
         <v>15</v>
       </c>
-      <c r="K41" s="20">
-        <v>5</v>
-      </c>
-      <c r="L41" s="21">
-        <f>SUM(B41:K41)</f>
+      <c r="K41" s="18">
+        <v>5</v>
+      </c>
+      <c r="L41" s="19">
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="18">
         <v>0</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>10</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="18">
         <v>25</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="18">
         <v>55</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="18">
         <v>40</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="18">
         <v>40</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="18">
         <v>40</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="18">
         <v>40</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="18">
         <v>25</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="18">
         <v>35</v>
       </c>
-      <c r="L42" s="21">
-        <f>SUM(B42:K42)</f>
+      <c r="L42" s="19">
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="18">
         <v>0</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>20</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>55</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <v>50</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="18">
         <v>45</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="18">
         <v>65</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>30</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>30</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="18">
         <v>15</v>
       </c>
-      <c r="K43" s="20">
-        <v>5</v>
-      </c>
-      <c r="L43" s="21">
-        <f>SUM(B43:K43)</f>
+      <c r="K43" s="18">
+        <v>5</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="20">
-        <v>5</v>
-      </c>
-      <c r="C44" s="20">
+      <c r="B44" s="18">
+        <v>5</v>
+      </c>
+      <c r="C44" s="18">
         <v>25</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>40</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>35</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="18">
         <v>45</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <v>45</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="18">
         <v>45</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="18">
         <v>40</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="18">
         <v>30</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="18">
         <v>25</v>
       </c>
-      <c r="L44" s="21">
-        <f>SUM(B44:K44)</f>
+      <c r="L44" s="19">
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="18">
         <v>10</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="18">
         <v>25</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="18">
         <v>35</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>60</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <v>55</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="18">
         <v>45</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="18">
         <v>45</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="18">
         <v>40</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="18">
         <v>20</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="18">
         <v>10</v>
       </c>
-      <c r="L45" s="21">
-        <f>SUM(B45:K45)</f>
+      <c r="L45" s="19">
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="20">
-        <v>5</v>
-      </c>
-      <c r="C46" s="20">
+      <c r="B46" s="18">
+        <v>5</v>
+      </c>
+      <c r="C46" s="18">
         <v>20</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>40</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>55</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="18">
         <v>30</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>55</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>60</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>45</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="18">
         <v>25</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="18">
         <v>20</v>
       </c>
-      <c r="L46" s="21">
-        <f>SUM(B46:K46)</f>
+      <c r="L46" s="19">
+        <f t="shared" si="1"/>
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="20">
-        <v>5</v>
-      </c>
-      <c r="C47" s="20">
+      <c r="B47" s="18">
+        <v>5</v>
+      </c>
+      <c r="C47" s="18">
         <v>15</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>45</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>55</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>40</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="18">
         <v>65</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>75</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="18">
         <v>40</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="18">
         <v>30</v>
       </c>
-      <c r="K47" s="20">
-        <v>5</v>
-      </c>
-      <c r="L47" s="21">
-        <f>SUM(B47:K47)</f>
+      <c r="K47" s="18">
+        <v>5</v>
+      </c>
+      <c r="L47" s="19">
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+    <row r="48" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>20</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <v>35</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <v>50</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>60</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <v>65</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="18">
         <v>55</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>45</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="18">
         <v>25</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="18">
         <v>15</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="18">
         <v>15</v>
       </c>
-      <c r="L48" s="21">
-        <f>SUM(B48:K48)</f>
+      <c r="L48" s="19">
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="18">
         <v>10</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>25</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>30</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>45</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="18">
         <v>45</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="18">
         <v>65</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>70</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>75</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>35</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="18">
         <v>10</v>
       </c>
-      <c r="L49" s="21">
-        <f>SUM(B49:K49)</f>
+      <c r="L49" s="19">
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="20">
-        <v>5</v>
-      </c>
-      <c r="C50" s="20">
+      <c r="B50" s="18">
+        <v>5</v>
+      </c>
+      <c r="C50" s="18">
         <v>20</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>35</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>60</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="18">
         <v>35</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="18">
         <v>50</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="18">
         <v>70</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="18">
         <v>50</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="18">
         <v>35</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="18">
         <v>50</v>
       </c>
-      <c r="L50" s="21">
-        <f>SUM(B50:K50)</f>
+      <c r="L50" s="19">
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>0</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>10</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="18">
         <v>30</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>40</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="18">
         <v>55</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="18">
         <v>75</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="18">
         <v>80</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="18">
         <v>70</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="18">
         <v>50</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="18">
         <v>20</v>
       </c>
-      <c r="L51" s="21">
-        <f>SUM(B51:K51)</f>
+      <c r="L51" s="19">
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="20">
-        <v>5</v>
-      </c>
-      <c r="C52" s="20">
+      <c r="B52" s="18">
+        <v>5</v>
+      </c>
+      <c r="C52" s="18">
         <v>45</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>55</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>50</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="18">
         <v>50</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="18">
         <v>60</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>60</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>40</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="18">
         <v>30</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="18">
         <v>35</v>
       </c>
-      <c r="L52" s="21">
-        <f>SUM(B52:K52)</f>
+      <c r="L52" s="19">
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="20">
-        <v>5</v>
-      </c>
-      <c r="C53" s="20">
+      <c r="B53" s="18">
+        <v>5</v>
+      </c>
+      <c r="C53" s="18">
         <v>15</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <v>30</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>50</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <v>60</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="18">
         <v>85</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>105</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="18">
         <v>80</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="18">
         <v>25</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="18">
         <v>15</v>
       </c>
-      <c r="L53" s="21">
-        <f>SUM(B53:K53)</f>
+      <c r="L53" s="19">
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="18">
         <v>10</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>40</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>95</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>70</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="18">
         <v>60</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>75</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>60</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <v>75</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="18">
         <v>30</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="18">
         <v>20</v>
       </c>
-      <c r="L54" s="21">
-        <f>SUM(B54:K54)</f>
+      <c r="L54" s="19">
+        <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="18">
         <v>20</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>45</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <v>50</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>55</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <v>50</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="18">
         <v>90</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>85</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <v>75</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="18">
         <v>55</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="18">
         <v>40</v>
       </c>
-      <c r="L55" s="21">
-        <f>SUM(B55:K55)</f>
+      <c r="L55" s="19">
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="20">
-        <v>5</v>
-      </c>
-      <c r="C56" s="20">
+      <c r="B56" s="18">
+        <v>5</v>
+      </c>
+      <c r="C56" s="18">
         <v>30</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>55</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>70</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="18">
         <v>75</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>85</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>105</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <v>95</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="18">
         <v>30</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="18">
         <v>20</v>
       </c>
-      <c r="L56" s="21">
-        <f>SUM(B56:K56)</f>
+      <c r="L56" s="19">
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="18">
         <v>0</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <v>25</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="18">
         <v>60</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="18">
         <v>70</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="18">
         <v>65</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="18">
         <v>100</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="18">
         <v>110</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="18">
         <v>80</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="18">
         <v>50</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="18">
         <v>15</v>
       </c>
-      <c r="L57" s="21">
-        <f>SUM(B57:K57)</f>
+      <c r="L57" s="19">
+        <f t="shared" si="1"/>
         <v>575</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+    <row r="58" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="18">
         <v>0</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>25</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>60</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>85</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="18">
         <v>90</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>100</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>115</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>60</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="18">
         <v>30</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="18">
         <v>30</v>
       </c>
-      <c r="L58" s="21">
-        <f>SUM(B58:K58)</f>
+      <c r="L58" s="19">
+        <f t="shared" si="1"/>
         <v>595</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="18">
         <v>0</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>20</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>55</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>90</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <v>75</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>90</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>135</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>90</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="18">
         <v>40</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="18">
         <v>10</v>
       </c>
-      <c r="L59" s="21">
-        <f>SUM(B59:K59)</f>
+      <c r="L59" s="19">
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="18">
         <v>0</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="18">
         <v>25</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="18">
         <v>65</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="18">
         <v>75</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <v>80</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="18">
         <v>120</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="18">
         <v>115</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="18">
         <v>80</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="18">
         <v>45</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="18">
         <v>10</v>
       </c>
-      <c r="L60" s="21">
-        <f>SUM(B60:K60)</f>
+      <c r="L60" s="19">
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="20">
-        <v>5</v>
-      </c>
-      <c r="C61" s="20">
+      <c r="B61" s="18">
+        <v>5</v>
+      </c>
+      <c r="C61" s="18">
         <v>30</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="18">
         <v>70</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="18">
         <v>70</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="18">
         <v>85</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="18">
         <v>105</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="18">
         <v>110</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="18">
         <v>70</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="18">
         <v>45</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="18">
         <v>45</v>
       </c>
-      <c r="L61" s="21">
-        <f>SUM(B61:K61)</f>
+      <c r="L61" s="19">
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+    <row r="62" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="18">
         <v>10</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="18">
         <v>35</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="18">
         <v>55</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="18">
         <v>85</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="18">
         <v>110</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="18">
         <v>85</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="18">
         <v>120</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="18">
         <v>85</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="18">
         <v>50</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="18">
         <v>25</v>
       </c>
-      <c r="L62" s="21">
-        <f>SUM(B62:K62)</f>
+      <c r="L62" s="19">
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="18">
         <v>30</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>120</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>175</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="18">
         <v>115</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="18">
         <v>80</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="18">
         <v>55</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="18">
         <v>45</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="18">
         <v>25</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="18">
         <v>25</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="18">
         <v>10</v>
       </c>
-      <c r="L63" s="21">
-        <f>SUM(B63:K63)</f>
+      <c r="L63" s="19">
+        <f t="shared" si="1"/>
         <v>680</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+    <row r="64" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="18">
         <v>20</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="18">
         <v>55</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="18">
         <v>95</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="18">
         <v>120</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="18">
         <v>90</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="18">
         <v>110</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="18">
         <v>95</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="18">
         <v>65</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="18">
         <v>25</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="18">
         <v>25</v>
       </c>
-      <c r="L64" s="21">
-        <f>SUM(B64:K64)</f>
+      <c r="L64" s="19">
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="18">
         <v>10</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="18">
         <v>45</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="18">
         <v>80</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="18">
         <v>95</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="18">
         <v>80</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="18">
         <v>85</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="18">
         <v>95</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="18">
         <v>80</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="18">
         <v>55</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="18">
         <v>75</v>
       </c>
-      <c r="L65" s="21">
-        <f>SUM(B65:K65)</f>
+      <c r="L65" s="19">
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+    <row r="66" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="20">
-        <v>5</v>
-      </c>
-      <c r="C66" s="20">
+      <c r="B66" s="18">
+        <v>5</v>
+      </c>
+      <c r="C66" s="18">
         <v>50</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="18">
         <v>55</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="18">
         <v>100</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="18">
         <v>95</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="18">
         <v>115</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="18">
         <v>105</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="18">
         <v>95</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="18">
         <v>45</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="18">
         <v>40</v>
       </c>
-      <c r="L66" s="21">
-        <f>SUM(B66:K66)</f>
+      <c r="L66" s="19">
+        <f t="shared" ref="L66:L97" si="2">SUM(B66:K66)</f>
         <v>705</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+    <row r="67" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="18">
         <v>20</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="18">
         <v>40</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="18">
         <v>75</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="18">
         <v>90</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="18">
         <v>100</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="18">
         <v>110</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="18">
         <v>135</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="18">
         <v>100</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="18">
         <v>30</v>
       </c>
-      <c r="K67" s="20">
-        <v>5</v>
-      </c>
-      <c r="L67" s="21">
-        <f>SUM(B67:K67)</f>
+      <c r="K67" s="18">
+        <v>5</v>
+      </c>
+      <c r="L67" s="19">
+        <f t="shared" si="2"/>
         <v>705</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+    <row r="68" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="18">
         <v>10</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="18">
         <v>75</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="18">
         <v>125</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="18">
         <v>115</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="18">
         <v>90</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="18">
         <v>80</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="18">
         <v>85</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="18">
         <v>80</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="18">
         <v>35</v>
       </c>
-      <c r="K68" s="20">
+      <c r="K68" s="18">
         <v>15</v>
       </c>
-      <c r="L68" s="21">
-        <f>SUM(B68:K68)</f>
+      <c r="L68" s="19">
+        <f t="shared" si="2"/>
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+    <row r="69" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="18">
         <v>25</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="18">
         <v>60</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="18">
         <v>70</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="18">
         <v>105</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="18">
         <v>95</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="18">
         <v>105</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="18">
         <v>110</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="18">
         <v>95</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="18">
         <v>35</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K69" s="18">
         <v>15</v>
       </c>
-      <c r="L69" s="21">
-        <f>SUM(B69:K69)</f>
+      <c r="L69" s="19">
+        <f t="shared" si="2"/>
         <v>715</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+    <row r="70" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="18">
         <v>20</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="18">
         <v>40</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="18">
         <v>75</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="18">
         <v>70</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="18">
         <v>75</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="18">
         <v>110</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="18">
         <v>110</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="18">
         <v>90</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="18">
         <v>75</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K70" s="18">
         <v>60</v>
       </c>
-      <c r="L70" s="21">
-        <f>SUM(B70:K70)</f>
+      <c r="L70" s="19">
+        <f t="shared" si="2"/>
         <v>725</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+    <row r="71" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="18">
         <v>10</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="18">
         <v>40</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="18">
         <v>55</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="18">
         <v>90</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="18">
         <v>115</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="18">
         <v>100</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="18">
         <v>150</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="18">
         <v>100</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="18">
         <v>60</v>
       </c>
-      <c r="K71" s="20">
+      <c r="K71" s="18">
         <v>30</v>
       </c>
-      <c r="L71" s="21">
-        <f>SUM(B71:K71)</f>
+      <c r="L71" s="19">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+    <row r="72" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="21">
         <v>20</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="21">
         <v>85</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="21">
         <v>145</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="21">
         <v>155</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="21">
         <v>110</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="21">
         <v>65</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="21">
         <v>65</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="21">
         <v>45</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J72" s="21">
         <v>35</v>
       </c>
-      <c r="K72" s="23">
+      <c r="K72" s="21">
         <v>35</v>
       </c>
-      <c r="L72" s="24">
-        <f>SUM(B72:K72)</f>
+      <c r="L72" s="22">
+        <f t="shared" si="2"/>
         <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+    <row r="73" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="21">
         <v>20</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="21">
         <v>45</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="21">
         <v>60</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="21">
         <v>85</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="21">
         <v>90</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="21">
         <v>125</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="21">
         <v>135</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="21">
         <v>105</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="21">
         <v>60</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="21">
         <v>45</v>
       </c>
-      <c r="L73" s="24">
-        <f>SUM(B73:K73)</f>
+      <c r="L73" s="22">
+        <f t="shared" si="2"/>
         <v>770</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+    <row r="74" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="21">
         <v>25</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="21">
         <v>50</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="21">
         <v>100</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="21">
         <v>80</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="21">
         <v>110</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="21">
         <v>105</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="21">
         <v>115</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="21">
         <v>90</v>
       </c>
-      <c r="J74" s="23">
+      <c r="J74" s="21">
         <v>50</v>
       </c>
-      <c r="K74" s="23">
+      <c r="K74" s="21">
         <v>50</v>
       </c>
-      <c r="L74" s="24">
-        <f>SUM(B74:K74)</f>
+      <c r="L74" s="22">
+        <f t="shared" si="2"/>
         <v>775</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+    <row r="75" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="23">
-        <v>5</v>
-      </c>
-      <c r="C75" s="23">
+      <c r="B75" s="21">
+        <v>5</v>
+      </c>
+      <c r="C75" s="21">
         <v>25</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="21">
         <v>75</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="21">
         <v>100</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="21">
         <v>115</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="21">
         <v>125</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="21">
         <v>125</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="21">
         <v>140</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="21">
         <v>50</v>
       </c>
-      <c r="K75" s="23">
+      <c r="K75" s="21">
         <v>15</v>
       </c>
-      <c r="L75" s="24">
-        <f>SUM(B75:K75)</f>
+      <c r="L75" s="22">
+        <f t="shared" si="2"/>
         <v>775</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+    <row r="76" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="21">
         <v>20</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="21">
         <v>85</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="21">
         <v>120</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="21">
         <v>125</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="21">
         <v>110</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="21">
         <v>105</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="21">
         <v>90</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="21">
         <v>60</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="21">
         <v>35</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="21">
         <v>35</v>
       </c>
-      <c r="L76" s="24">
-        <f>SUM(B76:K76)</f>
+      <c r="L76" s="22">
+        <f t="shared" si="2"/>
         <v>785</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+    <row r="77" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="21">
         <v>10</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="21">
         <v>35</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="21">
         <v>60</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="21">
         <v>105</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="21">
         <v>120</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="21">
         <v>140</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="21">
         <v>125</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I77" s="21">
         <v>120</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J77" s="21">
         <v>70</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K77" s="21">
         <v>20</v>
       </c>
-      <c r="L77" s="24">
-        <f>SUM(B77:K77)</f>
+      <c r="L77" s="22">
+        <f t="shared" si="2"/>
         <v>805</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+    <row r="78" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="23">
-        <v>5</v>
-      </c>
-      <c r="C78" s="23">
+      <c r="B78" s="21">
+        <v>5</v>
+      </c>
+      <c r="C78" s="21">
         <v>75</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="21">
         <v>120</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="21">
         <v>130</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F78" s="21">
         <v>95</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G78" s="21">
         <v>120</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H78" s="21">
         <v>120</v>
       </c>
-      <c r="I78" s="23">
+      <c r="I78" s="21">
         <v>90</v>
       </c>
-      <c r="J78" s="23">
+      <c r="J78" s="21">
         <v>50</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="21">
         <v>25</v>
       </c>
-      <c r="L78" s="24">
-        <f>SUM(B78:K78)</f>
+      <c r="L78" s="22">
+        <f t="shared" si="2"/>
         <v>830</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+    <row r="79" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="21">
         <v>10</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="21">
         <v>50</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="21">
         <v>80</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="21">
         <v>100</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="21">
         <v>130</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="21">
         <v>125</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="21">
         <v>125</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I79" s="21">
         <v>105</v>
       </c>
-      <c r="J79" s="23">
+      <c r="J79" s="21">
         <v>70</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K79" s="21">
         <v>35</v>
       </c>
-      <c r="L79" s="24">
-        <f>SUM(B79:K79)</f>
+      <c r="L79" s="22">
+        <f t="shared" si="2"/>
         <v>830</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+    <row r="80" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="23">
+      <c r="B80" s="21">
         <v>10</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="21">
         <v>105</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="21">
         <v>115</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="21">
         <v>110</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F80" s="21">
         <v>115</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="21">
         <v>105</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="21">
         <v>90</v>
       </c>
-      <c r="I80" s="23">
+      <c r="I80" s="21">
         <v>90</v>
       </c>
-      <c r="J80" s="23">
+      <c r="J80" s="21">
         <v>35</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K80" s="21">
         <v>55</v>
       </c>
-      <c r="L80" s="24">
-        <f>SUM(B80:K80)</f>
+      <c r="L80" s="22">
+        <f t="shared" si="2"/>
         <v>830</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+    <row r="81" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="23">
+      <c r="B81" s="21">
         <v>10</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="21">
         <v>90</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="21">
         <v>150</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="21">
         <v>155</v>
       </c>
-      <c r="F81" s="23">
+      <c r="F81" s="21">
         <v>80</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="21">
         <v>105</v>
       </c>
-      <c r="H81" s="23">
+      <c r="H81" s="21">
         <v>110</v>
       </c>
-      <c r="I81" s="23">
+      <c r="I81" s="21">
         <v>85</v>
       </c>
-      <c r="J81" s="23">
+      <c r="J81" s="21">
         <v>40</v>
       </c>
-      <c r="K81" s="23">
+      <c r="K81" s="21">
         <v>25</v>
       </c>
-      <c r="L81" s="24">
-        <f>SUM(B81:K81)</f>
+      <c r="L81" s="22">
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+    <row r="82" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="23">
-        <v>5</v>
-      </c>
-      <c r="C82" s="23">
+      <c r="B82" s="21">
+        <v>5</v>
+      </c>
+      <c r="C82" s="21">
         <v>50</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="21">
         <v>95</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="21">
         <v>140</v>
       </c>
-      <c r="F82" s="23">
+      <c r="F82" s="21">
         <v>135</v>
       </c>
-      <c r="G82" s="23">
+      <c r="G82" s="21">
         <v>140</v>
       </c>
-      <c r="H82" s="23">
+      <c r="H82" s="21">
         <v>110</v>
       </c>
-      <c r="I82" s="23">
+      <c r="I82" s="21">
         <v>105</v>
       </c>
-      <c r="J82" s="23">
+      <c r="J82" s="21">
         <v>50</v>
       </c>
-      <c r="K82" s="23">
+      <c r="K82" s="21">
         <v>30</v>
       </c>
-      <c r="L82" s="24">
-        <f>SUM(B82:K82)</f>
+      <c r="L82" s="22">
+        <f t="shared" si="2"/>
         <v>860</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+    <row r="83" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="21">
         <v>35</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="21">
         <v>70</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="21">
         <v>90</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="21">
         <v>90</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F83" s="21">
         <v>135</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="21">
         <v>115</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H83" s="21">
         <v>130</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I83" s="21">
         <v>125</v>
       </c>
-      <c r="J83" s="23">
+      <c r="J83" s="21">
         <v>65</v>
       </c>
-      <c r="K83" s="23">
+      <c r="K83" s="21">
         <v>30</v>
       </c>
-      <c r="L83" s="24">
-        <f>SUM(B83:K83)</f>
+      <c r="L83" s="22">
+        <f t="shared" si="2"/>
         <v>885</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+    <row r="84" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="21">
         <v>25</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="21">
         <v>30</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="21">
         <v>80</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="21">
         <v>90</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F84" s="21">
         <v>110</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G84" s="21">
         <v>140</v>
       </c>
-      <c r="H84" s="23">
+      <c r="H84" s="21">
         <v>175</v>
       </c>
-      <c r="I84" s="23">
+      <c r="I84" s="21">
         <v>145</v>
       </c>
-      <c r="J84" s="23">
+      <c r="J84" s="21">
         <v>80</v>
       </c>
-      <c r="K84" s="23">
+      <c r="K84" s="21">
         <v>15</v>
       </c>
-      <c r="L84" s="24">
-        <f>SUM(B84:K84)</f>
+      <c r="L84" s="22">
+        <f t="shared" si="2"/>
         <v>890</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+    <row r="85" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="21">
         <v>15</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="21">
         <v>60</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="21">
         <v>110</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="21">
         <v>130</v>
       </c>
-      <c r="F85" s="23">
+      <c r="F85" s="21">
         <v>150</v>
       </c>
-      <c r="G85" s="23">
+      <c r="G85" s="21">
         <v>125</v>
       </c>
-      <c r="H85" s="23">
+      <c r="H85" s="21">
         <v>140</v>
       </c>
-      <c r="I85" s="23">
+      <c r="I85" s="21">
         <v>110</v>
       </c>
-      <c r="J85" s="23">
+      <c r="J85" s="21">
         <v>45</v>
       </c>
-      <c r="K85" s="23">
+      <c r="K85" s="21">
         <v>10</v>
       </c>
-      <c r="L85" s="24">
-        <f>SUM(B85:K85)</f>
+      <c r="L85" s="22">
+        <f t="shared" si="2"/>
         <v>895</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="21">
         <v>55</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="21">
         <v>65</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="21">
         <v>100</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="21">
         <v>125</v>
       </c>
-      <c r="F86" s="23">
+      <c r="F86" s="21">
         <v>100</v>
       </c>
-      <c r="G86" s="23">
+      <c r="G86" s="21">
         <v>115</v>
       </c>
-      <c r="H86" s="23">
+      <c r="H86" s="21">
         <v>140</v>
       </c>
-      <c r="I86" s="23">
+      <c r="I86" s="21">
         <v>120</v>
       </c>
-      <c r="J86" s="23">
+      <c r="J86" s="21">
         <v>50</v>
       </c>
-      <c r="K86" s="23">
+      <c r="K86" s="21">
         <v>25</v>
       </c>
-      <c r="L86" s="24">
-        <f>SUM(B86:K86)</f>
+      <c r="L86" s="22">
+        <f t="shared" si="2"/>
         <v>895</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+    <row r="87" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="21">
         <v>10</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="21">
         <v>50</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="21">
         <v>125</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="21">
         <v>125</v>
       </c>
-      <c r="F87" s="23">
+      <c r="F87" s="21">
         <v>130</v>
       </c>
-      <c r="G87" s="23">
+      <c r="G87" s="21">
         <v>145</v>
       </c>
-      <c r="H87" s="23">
+      <c r="H87" s="21">
         <v>155</v>
       </c>
-      <c r="I87" s="23">
+      <c r="I87" s="21">
         <v>90</v>
       </c>
-      <c r="J87" s="23">
+      <c r="J87" s="21">
         <v>60</v>
       </c>
-      <c r="K87" s="23">
+      <c r="K87" s="21">
         <v>25</v>
       </c>
-      <c r="L87" s="24">
-        <f>SUM(B87:K87)</f>
+      <c r="L87" s="22">
+        <f t="shared" si="2"/>
         <v>915</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="21">
         <v>20</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="21">
         <v>55</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="21">
         <v>85</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="21">
         <v>120</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F88" s="21">
         <v>105</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G88" s="21">
         <v>150</v>
       </c>
-      <c r="H88" s="23">
+      <c r="H88" s="21">
         <v>150</v>
       </c>
-      <c r="I88" s="23">
+      <c r="I88" s="21">
         <v>115</v>
       </c>
-      <c r="J88" s="23">
+      <c r="J88" s="21">
         <v>75</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="21">
         <v>40</v>
       </c>
-      <c r="L88" s="24">
-        <f>SUM(B88:K88)</f>
+      <c r="L88" s="22">
+        <f t="shared" si="2"/>
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+    <row r="89" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="21">
         <v>20</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="21">
         <v>85</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="21">
         <v>120</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="21">
         <v>145</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="21">
         <v>110</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="21">
         <v>135</v>
       </c>
-      <c r="H89" s="23">
+      <c r="H89" s="21">
         <v>120</v>
       </c>
-      <c r="I89" s="23">
+      <c r="I89" s="21">
         <v>95</v>
       </c>
-      <c r="J89" s="23">
+      <c r="J89" s="21">
         <v>70</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="21">
         <v>65</v>
       </c>
-      <c r="L89" s="24">
-        <f>SUM(B89:K89)</f>
+      <c r="L89" s="22">
+        <f t="shared" si="2"/>
         <v>965</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+    <row r="90" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="21">
         <v>25</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="21">
         <v>50</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="21">
         <v>95</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="21">
         <v>155</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F90" s="21">
         <v>130</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="21">
         <v>140</v>
       </c>
-      <c r="H90" s="23">
+      <c r="H90" s="21">
         <v>145</v>
       </c>
-      <c r="I90" s="23">
+      <c r="I90" s="21">
         <v>110</v>
       </c>
-      <c r="J90" s="23">
+      <c r="J90" s="21">
         <v>65</v>
       </c>
-      <c r="K90" s="23">
+      <c r="K90" s="21">
         <v>50</v>
       </c>
-      <c r="L90" s="24">
-        <f>SUM(B90:K90)</f>
+      <c r="L90" s="22">
+        <f t="shared" si="2"/>
         <v>965</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+    <row r="91" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="21">
         <v>25</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="21">
         <v>85</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="21">
         <v>145</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="21">
         <v>145</v>
       </c>
-      <c r="F91" s="23">
+      <c r="F91" s="21">
         <v>100</v>
       </c>
-      <c r="G91" s="23">
+      <c r="G91" s="21">
         <v>120</v>
       </c>
-      <c r="H91" s="23">
+      <c r="H91" s="21">
         <v>145</v>
       </c>
-      <c r="I91" s="23">
+      <c r="I91" s="21">
         <v>100</v>
       </c>
-      <c r="J91" s="23">
+      <c r="J91" s="21">
         <v>70</v>
       </c>
-      <c r="K91" s="23">
+      <c r="K91" s="21">
         <v>40</v>
       </c>
-      <c r="L91" s="24">
-        <f>SUM(B91:K91)</f>
+      <c r="L91" s="22">
+        <f t="shared" si="2"/>
         <v>975</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+    <row r="92" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="21">
         <v>35</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="21">
         <v>120</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="21">
         <v>140</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="21">
         <v>135</v>
       </c>
-      <c r="F92" s="23">
+      <c r="F92" s="21">
         <v>125</v>
       </c>
-      <c r="G92" s="23">
+      <c r="G92" s="21">
         <v>130</v>
       </c>
-      <c r="H92" s="23">
+      <c r="H92" s="21">
         <v>135</v>
       </c>
-      <c r="I92" s="23">
+      <c r="I92" s="21">
         <v>95</v>
       </c>
-      <c r="J92" s="23">
+      <c r="J92" s="21">
         <v>45</v>
       </c>
-      <c r="K92" s="23">
+      <c r="K92" s="21">
         <v>20</v>
       </c>
-      <c r="L92" s="24">
-        <f>SUM(B92:K92)</f>
+      <c r="L92" s="22">
+        <f t="shared" si="2"/>
         <v>980</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+    <row r="93" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="21">
         <v>25</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="21">
         <v>55</v>
       </c>
-      <c r="D93" s="23">
+      <c r="D93" s="21">
         <v>85</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="21">
         <v>115</v>
       </c>
-      <c r="F93" s="23">
+      <c r="F93" s="21">
         <v>110</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="21">
         <v>130</v>
       </c>
-      <c r="H93" s="23">
+      <c r="H93" s="21">
         <v>145</v>
       </c>
-      <c r="I93" s="23">
+      <c r="I93" s="21">
         <v>145</v>
       </c>
-      <c r="J93" s="23">
+      <c r="J93" s="21">
         <v>90</v>
       </c>
-      <c r="K93" s="23">
+      <c r="K93" s="21">
         <v>85</v>
       </c>
-      <c r="L93" s="24">
-        <f>SUM(B93:K93)</f>
+      <c r="L93" s="22">
+        <f t="shared" si="2"/>
         <v>985</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+    <row r="94" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="21">
         <v>0</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="21">
         <v>45</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D94" s="21">
         <v>100</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="21">
         <v>140</v>
       </c>
-      <c r="F94" s="23">
+      <c r="F94" s="21">
         <v>155</v>
       </c>
-      <c r="G94" s="23">
+      <c r="G94" s="21">
         <v>160</v>
       </c>
-      <c r="H94" s="23">
+      <c r="H94" s="21">
         <v>175</v>
       </c>
-      <c r="I94" s="23">
+      <c r="I94" s="21">
         <v>145</v>
       </c>
-      <c r="J94" s="23">
+      <c r="J94" s="21">
         <v>60</v>
       </c>
-      <c r="K94" s="23">
+      <c r="K94" s="21">
         <v>10</v>
       </c>
-      <c r="L94" s="24">
-        <f>SUM(B94:K94)</f>
+      <c r="L94" s="22">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+    <row r="95" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="23">
-        <v>5</v>
-      </c>
-      <c r="C95" s="23">
+      <c r="B95" s="21">
+        <v>5</v>
+      </c>
+      <c r="C95" s="21">
         <v>40</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="21">
         <v>100</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="21">
         <v>135</v>
       </c>
-      <c r="F95" s="23">
+      <c r="F95" s="21">
         <v>140</v>
       </c>
-      <c r="G95" s="23">
+      <c r="G95" s="21">
         <v>190</v>
       </c>
-      <c r="H95" s="23">
+      <c r="H95" s="21">
         <v>145</v>
       </c>
-      <c r="I95" s="23">
+      <c r="I95" s="21">
         <v>150</v>
       </c>
-      <c r="J95" s="23">
+      <c r="J95" s="21">
         <v>70</v>
       </c>
-      <c r="K95" s="23">
+      <c r="K95" s="21">
         <v>45</v>
       </c>
-      <c r="L95" s="24">
-        <f>SUM(B95:K95)</f>
+      <c r="L95" s="22">
+        <f t="shared" si="2"/>
         <v>1020</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+    <row r="96" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="21">
         <v>30</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="21">
         <v>70</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="21">
         <v>105</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="21">
         <v>105</v>
       </c>
-      <c r="F96" s="23">
+      <c r="F96" s="21">
         <v>135</v>
       </c>
-      <c r="G96" s="23">
+      <c r="G96" s="21">
         <v>145</v>
       </c>
-      <c r="H96" s="23">
+      <c r="H96" s="21">
         <v>165</v>
       </c>
-      <c r="I96" s="23">
+      <c r="I96" s="21">
         <v>145</v>
       </c>
-      <c r="J96" s="23">
+      <c r="J96" s="21">
         <v>85</v>
       </c>
-      <c r="K96" s="23">
+      <c r="K96" s="21">
         <v>45</v>
       </c>
-      <c r="L96" s="24">
-        <f>SUM(B96:K96)</f>
+      <c r="L96" s="22">
+        <f t="shared" si="2"/>
         <v>1030</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+    <row r="97" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B97" s="23">
+      <c r="B97" s="21">
         <v>15</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="21">
         <v>65</v>
       </c>
-      <c r="D97" s="23">
+      <c r="D97" s="21">
         <v>100</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="21">
         <v>155</v>
       </c>
-      <c r="F97" s="23">
+      <c r="F97" s="21">
         <v>140</v>
       </c>
-      <c r="G97" s="23">
+      <c r="G97" s="21">
         <v>170</v>
       </c>
-      <c r="H97" s="23">
+      <c r="H97" s="21">
         <v>155</v>
       </c>
-      <c r="I97" s="23">
+      <c r="I97" s="21">
         <v>125</v>
       </c>
-      <c r="J97" s="23">
+      <c r="J97" s="21">
         <v>80</v>
       </c>
-      <c r="K97" s="23">
+      <c r="K97" s="21">
         <v>25</v>
       </c>
-      <c r="L97" s="24">
-        <f>SUM(B97:K97)</f>
+      <c r="L97" s="22">
+        <f t="shared" si="2"/>
         <v>1030</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+    <row r="98" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="21">
         <v>40</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="21">
         <v>70</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="21">
         <v>105</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="21">
         <v>125</v>
       </c>
-      <c r="F98" s="23">
+      <c r="F98" s="21">
         <v>135</v>
       </c>
-      <c r="G98" s="23">
+      <c r="G98" s="21">
         <v>140</v>
       </c>
-      <c r="H98" s="23">
+      <c r="H98" s="21">
         <v>160</v>
       </c>
-      <c r="I98" s="23">
+      <c r="I98" s="21">
         <v>125</v>
       </c>
-      <c r="J98" s="23">
+      <c r="J98" s="21">
         <v>85</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="21">
         <v>70</v>
       </c>
-      <c r="L98" s="24">
-        <f>SUM(B98:K98)</f>
+      <c r="L98" s="22">
+        <f t="shared" ref="L98:L129" si="3">SUM(B98:K98)</f>
         <v>1055</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+    <row r="99" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="21">
         <v>45</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="21">
         <v>95</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="21">
         <v>135</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="21">
         <v>140</v>
       </c>
-      <c r="F99" s="23">
+      <c r="F99" s="21">
         <v>145</v>
       </c>
-      <c r="G99" s="23">
+      <c r="G99" s="21">
         <v>150</v>
       </c>
-      <c r="H99" s="23">
+      <c r="H99" s="21">
         <v>145</v>
       </c>
-      <c r="I99" s="23">
+      <c r="I99" s="21">
         <v>100</v>
       </c>
-      <c r="J99" s="23">
+      <c r="J99" s="21">
         <v>75</v>
       </c>
-      <c r="K99" s="23">
+      <c r="K99" s="21">
         <v>60</v>
       </c>
-      <c r="L99" s="24">
-        <f>SUM(B99:K99)</f>
+      <c r="L99" s="22">
+        <f t="shared" si="3"/>
         <v>1090</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+    <row r="100" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="21">
         <v>25</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="21">
         <v>115</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="21">
         <v>170</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="21">
         <v>155</v>
       </c>
-      <c r="F100" s="23">
+      <c r="F100" s="21">
         <v>140</v>
       </c>
-      <c r="G100" s="23">
+      <c r="G100" s="21">
         <v>155</v>
       </c>
-      <c r="H100" s="23">
+      <c r="H100" s="21">
         <v>145</v>
       </c>
-      <c r="I100" s="23">
+      <c r="I100" s="21">
         <v>90</v>
       </c>
-      <c r="J100" s="23">
+      <c r="J100" s="21">
         <v>65</v>
       </c>
-      <c r="K100" s="23">
+      <c r="K100" s="21">
         <v>50</v>
       </c>
-      <c r="L100" s="24">
-        <f>SUM(B100:K100)</f>
+      <c r="L100" s="22">
+        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+    <row r="101" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="21">
         <v>50</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="21">
         <v>75</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="21">
         <v>105</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="21">
         <v>120</v>
       </c>
-      <c r="F101" s="23">
+      <c r="F101" s="21">
         <v>115</v>
       </c>
-      <c r="G101" s="23">
+      <c r="G101" s="21">
         <v>150</v>
       </c>
-      <c r="H101" s="23">
+      <c r="H101" s="21">
         <v>180</v>
       </c>
-      <c r="I101" s="23">
+      <c r="I101" s="21">
         <v>135</v>
       </c>
-      <c r="J101" s="23">
+      <c r="J101" s="21">
         <v>110</v>
       </c>
-      <c r="K101" s="23">
+      <c r="K101" s="21">
         <v>80</v>
       </c>
-      <c r="L101" s="24">
-        <f>SUM(B101:K101)</f>
+      <c r="L101" s="22">
+        <f t="shared" si="3"/>
         <v>1120</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+    <row r="102" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="23">
+      <c r="B102" s="21">
         <v>10</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="21">
         <v>110</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="21">
         <v>220</v>
       </c>
-      <c r="E102" s="23">
+      <c r="E102" s="21">
         <v>185</v>
       </c>
-      <c r="F102" s="23">
+      <c r="F102" s="21">
         <v>180</v>
       </c>
-      <c r="G102" s="23">
+      <c r="G102" s="21">
         <v>160</v>
       </c>
-      <c r="H102" s="23">
+      <c r="H102" s="21">
         <v>130</v>
       </c>
-      <c r="I102" s="23">
+      <c r="I102" s="21">
         <v>80</v>
       </c>
-      <c r="J102" s="23">
+      <c r="J102" s="21">
         <v>65</v>
       </c>
-      <c r="K102" s="23">
+      <c r="K102" s="21">
         <v>35</v>
       </c>
-      <c r="L102" s="24">
-        <f>SUM(B102:K102)</f>
+      <c r="L102" s="22">
+        <f t="shared" si="3"/>
         <v>1175</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+    <row r="103" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" s="21">
         <v>65</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="21">
         <v>170</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="21">
         <v>165</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="21">
         <v>180</v>
       </c>
-      <c r="F103" s="23">
+      <c r="F103" s="21">
         <v>140</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="21">
         <v>135</v>
       </c>
-      <c r="H103" s="23">
+      <c r="H103" s="21">
         <v>135</v>
       </c>
-      <c r="I103" s="23">
+      <c r="I103" s="21">
         <v>100</v>
       </c>
-      <c r="J103" s="23">
+      <c r="J103" s="21">
         <v>45</v>
       </c>
-      <c r="K103" s="23">
+      <c r="K103" s="21">
         <v>45</v>
       </c>
-      <c r="L103" s="24">
-        <f>SUM(B103:K103)</f>
+      <c r="L103" s="22">
+        <f t="shared" si="3"/>
         <v>1180</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+    <row r="104" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="21">
         <v>90</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="21">
         <v>125</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="21">
         <v>180</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="21">
         <v>185</v>
       </c>
-      <c r="F104" s="23">
+      <c r="F104" s="21">
         <v>160</v>
       </c>
-      <c r="G104" s="23">
+      <c r="G104" s="21">
         <v>160</v>
       </c>
-      <c r="H104" s="23">
+      <c r="H104" s="21">
         <v>140</v>
       </c>
-      <c r="I104" s="23">
+      <c r="I104" s="21">
         <v>115</v>
       </c>
-      <c r="J104" s="23">
+      <c r="J104" s="21">
         <v>65</v>
       </c>
-      <c r="K104" s="23">
+      <c r="K104" s="21">
         <v>35</v>
       </c>
-      <c r="L104" s="24">
-        <f>SUM(B104:K104)</f>
+      <c r="L104" s="22">
+        <f t="shared" si="3"/>
         <v>1255</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="15">
         <v>30</v>
       </c>
-      <c r="C105" s="17">
+      <c r="C105" s="15">
         <v>105</v>
       </c>
-      <c r="D105" s="17">
+      <c r="D105" s="15">
         <v>150</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="15">
         <v>175</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="15">
         <v>160</v>
       </c>
-      <c r="G105" s="17">
+      <c r="G105" s="15">
         <v>145</v>
       </c>
-      <c r="H105" s="17">
+      <c r="H105" s="15">
         <v>175</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="15">
         <v>165</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J105" s="15">
         <v>105</v>
       </c>
-      <c r="K105" s="17">
+      <c r="K105" s="15">
         <v>55</v>
       </c>
-      <c r="L105" s="18">
-        <f>SUM(B105:K105)</f>
+      <c r="L105" s="16">
+        <f t="shared" si="3"/>
         <v>1265</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="15">
         <v>20</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="15">
         <v>60</v>
       </c>
-      <c r="D106" s="17">
+      <c r="D106" s="15">
         <v>130</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="15">
         <v>175</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="15">
         <v>205</v>
       </c>
-      <c r="G106" s="17">
+      <c r="G106" s="15">
         <v>235</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="15">
         <v>190</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="15">
         <v>155</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="15">
         <v>60</v>
       </c>
-      <c r="K106" s="17">
+      <c r="K106" s="15">
         <v>40</v>
       </c>
-      <c r="L106" s="18">
-        <f>SUM(B106:K106)</f>
+      <c r="L106" s="16">
+        <f t="shared" si="3"/>
         <v>1270</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+    <row r="107" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="15">
         <v>25</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="15">
         <v>65</v>
       </c>
-      <c r="D107" s="17">
+      <c r="D107" s="15">
         <v>120</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="15">
         <v>170</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="15">
         <v>175</v>
       </c>
-      <c r="G107" s="17">
+      <c r="G107" s="15">
         <v>235</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="15">
         <v>210</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="15">
         <v>170</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="15">
         <v>100</v>
       </c>
-      <c r="K107" s="17">
+      <c r="K107" s="15">
         <v>30</v>
       </c>
-      <c r="L107" s="18">
-        <f>SUM(B107:K107)</f>
+      <c r="L107" s="16">
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="15">
         <v>70</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="15">
         <v>190</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="15">
         <v>210</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="15">
         <v>215</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="15">
         <v>180</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="15">
         <v>125</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="15">
         <v>120</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="15">
         <v>100</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="15">
         <v>65</v>
       </c>
-      <c r="K108" s="17">
+      <c r="K108" s="15">
         <v>35</v>
       </c>
-      <c r="L108" s="18">
-        <f>SUM(B108:K108)</f>
+      <c r="L108" s="16">
+        <f t="shared" si="3"/>
         <v>1310</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="15">
         <v>20</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="15">
         <v>105</v>
       </c>
-      <c r="D109" s="17">
+      <c r="D109" s="15">
         <v>130</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="15">
         <v>195</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="15">
         <v>195</v>
       </c>
-      <c r="G109" s="17">
+      <c r="G109" s="15">
         <v>225</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="15">
         <v>195</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I109" s="15">
         <v>180</v>
       </c>
-      <c r="J109" s="17">
+      <c r="J109" s="15">
         <v>95</v>
       </c>
-      <c r="K109" s="17">
+      <c r="K109" s="15">
         <v>40</v>
       </c>
-      <c r="L109" s="18">
-        <f>SUM(B109:K109)</f>
+      <c r="L109" s="16">
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="15">
         <v>25</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="15">
         <v>75</v>
       </c>
-      <c r="D110" s="17">
+      <c r="D110" s="15">
         <v>155</v>
       </c>
-      <c r="E110" s="17">
+      <c r="E110" s="15">
         <v>180</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="15">
         <v>185</v>
       </c>
-      <c r="G110" s="17">
+      <c r="G110" s="15">
         <v>215</v>
       </c>
-      <c r="H110" s="17">
+      <c r="H110" s="15">
         <v>240</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I110" s="15">
         <v>170</v>
       </c>
-      <c r="J110" s="17">
+      <c r="J110" s="15">
         <v>110</v>
       </c>
-      <c r="K110" s="17">
+      <c r="K110" s="15">
         <v>55</v>
       </c>
-      <c r="L110" s="18">
-        <f>SUM(B110:K110)</f>
+      <c r="L110" s="16">
+        <f t="shared" si="3"/>
         <v>1410</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="15">
         <v>10</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="15">
         <v>130</v>
       </c>
-      <c r="D111" s="17">
+      <c r="D111" s="15">
         <v>215</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="15">
         <v>210</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="15">
         <v>185</v>
       </c>
-      <c r="G111" s="17">
+      <c r="G111" s="15">
         <v>205</v>
       </c>
-      <c r="H111" s="17">
+      <c r="H111" s="15">
         <v>200</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="15">
         <v>150</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J111" s="15">
         <v>80</v>
       </c>
-      <c r="K111" s="17">
+      <c r="K111" s="15">
         <v>25</v>
       </c>
-      <c r="L111" s="18">
-        <f>SUM(B111:K111)</f>
+      <c r="L111" s="16">
+        <f t="shared" si="3"/>
         <v>1410</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+    <row r="112" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="15">
         <v>25</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="15">
         <v>120</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="15">
         <v>195</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="15">
         <v>225</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="15">
         <v>205</v>
       </c>
-      <c r="G112" s="17">
+      <c r="G112" s="15">
         <v>200</v>
       </c>
-      <c r="H112" s="17">
+      <c r="H112" s="15">
         <v>180</v>
       </c>
-      <c r="I112" s="17">
+      <c r="I112" s="15">
         <v>135</v>
       </c>
-      <c r="J112" s="17">
+      <c r="J112" s="15">
         <v>80</v>
       </c>
-      <c r="K112" s="17">
+      <c r="K112" s="15">
         <v>50</v>
       </c>
-      <c r="L112" s="18">
-        <f>SUM(B112:K112)</f>
+      <c r="L112" s="16">
+        <f t="shared" si="3"/>
         <v>1415</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+    <row r="113" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="15">
         <v>20</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="15">
         <v>110</v>
       </c>
-      <c r="D113" s="17">
+      <c r="D113" s="15">
         <v>175</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="15">
         <v>180</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="15">
         <v>150</v>
       </c>
-      <c r="G113" s="17">
+      <c r="G113" s="15">
         <v>210</v>
       </c>
-      <c r="H113" s="17">
+      <c r="H113" s="15">
         <v>195</v>
       </c>
-      <c r="I113" s="17">
+      <c r="I113" s="15">
         <v>185</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J113" s="15">
         <v>115</v>
       </c>
-      <c r="K113" s="17">
+      <c r="K113" s="15">
         <v>80</v>
       </c>
-      <c r="L113" s="18">
-        <f>SUM(B113:K113)</f>
+      <c r="L113" s="16">
+        <f t="shared" si="3"/>
         <v>1420</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="s">
+    <row r="114" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="15">
         <v>20</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="15">
         <v>100</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="15">
         <v>180</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="15">
         <v>200</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="15">
         <v>220</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="15">
         <v>235</v>
       </c>
-      <c r="H114" s="17">
+      <c r="H114" s="15">
         <v>235</v>
       </c>
-      <c r="I114" s="17">
+      <c r="I114" s="15">
         <v>150</v>
       </c>
-      <c r="J114" s="17">
+      <c r="J114" s="15">
         <v>70</v>
       </c>
-      <c r="K114" s="17">
+      <c r="K114" s="15">
         <v>15</v>
       </c>
-      <c r="L114" s="18">
-        <f>SUM(B114:K114)</f>
+      <c r="L114" s="16">
+        <f t="shared" si="3"/>
         <v>1425</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+    <row r="115" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="15">
         <v>35</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="15">
         <v>200</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="15">
         <v>255</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="15">
         <v>235</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="15">
         <v>185</v>
       </c>
-      <c r="G115" s="17">
+      <c r="G115" s="15">
         <v>155</v>
       </c>
-      <c r="H115" s="17">
+      <c r="H115" s="15">
         <v>160</v>
       </c>
-      <c r="I115" s="17">
+      <c r="I115" s="15">
         <v>105</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J115" s="15">
         <v>60</v>
       </c>
-      <c r="K115" s="17">
+      <c r="K115" s="15">
         <v>45</v>
       </c>
-      <c r="L115" s="18">
-        <f>SUM(B115:K115)</f>
+      <c r="L115" s="16">
+        <f t="shared" si="3"/>
         <v>1435</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+    <row r="116" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="15">
         <v>130</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="15">
         <v>205</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="15">
         <v>230</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="15">
         <v>225</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="15">
         <v>210</v>
       </c>
-      <c r="G116" s="17">
+      <c r="G116" s="15">
         <v>150</v>
       </c>
-      <c r="H116" s="17">
+      <c r="H116" s="15">
         <v>140</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I116" s="15">
         <v>100</v>
       </c>
-      <c r="J116" s="17">
+      <c r="J116" s="15">
         <v>45</v>
       </c>
-      <c r="K116" s="17">
+      <c r="K116" s="15">
         <v>30</v>
       </c>
-      <c r="L116" s="18">
-        <f>SUM(B116:K116)</f>
+      <c r="L116" s="16">
+        <f t="shared" si="3"/>
         <v>1465</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+    <row r="117" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="15">
         <v>25</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="15">
         <v>110</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="15">
         <v>200</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="15">
         <v>205</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117" s="15">
         <v>185</v>
       </c>
-      <c r="G117" s="17">
+      <c r="G117" s="15">
         <v>215</v>
       </c>
-      <c r="H117" s="17">
+      <c r="H117" s="15">
         <v>245</v>
       </c>
-      <c r="I117" s="17">
+      <c r="I117" s="15">
         <v>150</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J117" s="15">
         <v>95</v>
       </c>
-      <c r="K117" s="17">
+      <c r="K117" s="15">
         <v>45</v>
       </c>
-      <c r="L117" s="18">
-        <f>SUM(B117:K117)</f>
+      <c r="L117" s="16">
+        <f t="shared" si="3"/>
         <v>1475</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="15">
         <v>15</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="15">
         <v>135</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="15">
         <v>245</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="15">
         <v>270</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="15">
         <v>230</v>
       </c>
-      <c r="G118" s="17">
+      <c r="G118" s="15">
         <v>185</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="15">
         <v>160</v>
       </c>
-      <c r="I118" s="17">
+      <c r="I118" s="15">
         <v>125</v>
       </c>
-      <c r="J118" s="17">
+      <c r="J118" s="15">
         <v>65</v>
       </c>
-      <c r="K118" s="17">
+      <c r="K118" s="15">
         <v>55</v>
       </c>
-      <c r="L118" s="18">
-        <f>SUM(B118:K118)</f>
+      <c r="L118" s="16">
+        <f t="shared" si="3"/>
         <v>1485</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+    <row r="119" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="15">
         <v>25</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="15">
         <v>85</v>
       </c>
-      <c r="D119" s="17">
+      <c r="D119" s="15">
         <v>150</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="15">
         <v>195</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F119" s="15">
         <v>215</v>
       </c>
-      <c r="G119" s="17">
+      <c r="G119" s="15">
         <v>245</v>
       </c>
-      <c r="H119" s="17">
+      <c r="H119" s="15">
         <v>275</v>
       </c>
-      <c r="I119" s="17">
+      <c r="I119" s="15">
         <v>205</v>
       </c>
-      <c r="J119" s="17">
+      <c r="J119" s="15">
         <v>75</v>
       </c>
-      <c r="K119" s="17">
+      <c r="K119" s="15">
         <v>25</v>
       </c>
-      <c r="L119" s="18">
-        <f>SUM(B119:K119)</f>
+      <c r="L119" s="16">
+        <f t="shared" si="3"/>
         <v>1495</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="15">
         <v>65</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="15">
         <v>125</v>
       </c>
-      <c r="D120" s="17">
+      <c r="D120" s="15">
         <v>190</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E120" s="15">
         <v>225</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="15">
         <v>175</v>
       </c>
-      <c r="G120" s="17">
+      <c r="G120" s="15">
         <v>235</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="15">
         <v>225</v>
       </c>
-      <c r="I120" s="17">
+      <c r="I120" s="15">
         <v>185</v>
       </c>
-      <c r="J120" s="17">
+      <c r="J120" s="15">
         <v>85</v>
       </c>
-      <c r="K120" s="17">
+      <c r="K120" s="15">
         <v>35</v>
       </c>
-      <c r="L120" s="18">
-        <f>SUM(B120:K120)</f>
+      <c r="L120" s="16">
+        <f t="shared" si="3"/>
         <v>1545</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+    <row r="121" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="15">
         <v>30</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="15">
         <v>190</v>
       </c>
-      <c r="D121" s="17">
+      <c r="D121" s="15">
         <v>240</v>
       </c>
-      <c r="E121" s="17">
+      <c r="E121" s="15">
         <v>270</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F121" s="15">
         <v>230</v>
       </c>
-      <c r="G121" s="17">
+      <c r="G121" s="15">
         <v>190</v>
       </c>
-      <c r="H121" s="17">
+      <c r="H121" s="15">
         <v>175</v>
       </c>
-      <c r="I121" s="17">
+      <c r="I121" s="15">
         <v>150</v>
       </c>
-      <c r="J121" s="17">
+      <c r="J121" s="15">
         <v>75</v>
       </c>
-      <c r="K121" s="17">
+      <c r="K121" s="15">
         <v>45</v>
       </c>
-      <c r="L121" s="18">
-        <f>SUM(B121:K121)</f>
+      <c r="L121" s="16">
+        <f t="shared" si="3"/>
         <v>1595</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+    <row r="122" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="15">
         <v>40</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="15">
         <v>195</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D122" s="15">
         <v>245</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="15">
         <v>235</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="15">
         <v>190</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G122" s="15">
         <v>200</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="15">
         <v>185</v>
       </c>
-      <c r="I122" s="17">
+      <c r="I122" s="15">
         <v>150</v>
       </c>
-      <c r="J122" s="17">
+      <c r="J122" s="15">
         <v>110</v>
       </c>
-      <c r="K122" s="17">
+      <c r="K122" s="15">
         <v>50</v>
       </c>
-      <c r="L122" s="18">
-        <f>SUM(B122:K122)</f>
+      <c r="L122" s="16">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+    <row r="123" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="15">
         <v>25</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="15">
         <v>80</v>
       </c>
-      <c r="D123" s="17">
+      <c r="D123" s="15">
         <v>150</v>
       </c>
-      <c r="E123" s="17">
+      <c r="E123" s="15">
         <v>180</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="15">
         <v>205</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G123" s="15">
         <v>250</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="15">
         <v>265</v>
       </c>
-      <c r="I123" s="17">
+      <c r="I123" s="15">
         <v>195</v>
       </c>
-      <c r="J123" s="17">
+      <c r="J123" s="15">
         <v>145</v>
       </c>
-      <c r="K123" s="17">
+      <c r="K123" s="15">
         <v>115</v>
       </c>
-      <c r="L123" s="18">
-        <f>SUM(B123:K123)</f>
+      <c r="L123" s="16">
+        <f t="shared" si="3"/>
         <v>1610</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+    <row r="124" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="15">
         <v>20</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="15">
         <v>180</v>
       </c>
-      <c r="D124" s="17">
+      <c r="D124" s="15">
         <v>310</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="15">
         <v>270</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="15">
         <v>240</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G124" s="15">
         <v>190</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H124" s="15">
         <v>170</v>
       </c>
-      <c r="I124" s="17">
+      <c r="I124" s="15">
         <v>130</v>
       </c>
-      <c r="J124" s="17">
+      <c r="J124" s="15">
         <v>75</v>
       </c>
-      <c r="K124" s="17">
+      <c r="K124" s="15">
         <v>60</v>
       </c>
-      <c r="L124" s="18">
-        <f>SUM(B124:K124)</f>
+      <c r="L124" s="16">
+        <f t="shared" si="3"/>
         <v>1645</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+    <row r="125" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="15">
         <v>40</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C125" s="15">
         <v>250</v>
       </c>
-      <c r="D125" s="17">
+      <c r="D125" s="15">
         <v>295</v>
       </c>
-      <c r="E125" s="17">
+      <c r="E125" s="15">
         <v>245</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="15">
         <v>215</v>
       </c>
-      <c r="G125" s="17">
+      <c r="G125" s="15">
         <v>210</v>
       </c>
-      <c r="H125" s="17">
+      <c r="H125" s="15">
         <v>145</v>
       </c>
-      <c r="I125" s="17">
+      <c r="I125" s="15">
         <v>140</v>
       </c>
-      <c r="J125" s="17">
+      <c r="J125" s="15">
         <v>85</v>
       </c>
-      <c r="K125" s="17">
+      <c r="K125" s="15">
         <v>35</v>
       </c>
-      <c r="L125" s="18">
-        <f>SUM(B125:K125)</f>
+      <c r="L125" s="16">
+        <f t="shared" si="3"/>
         <v>1660</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+    <row r="126" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="15">
         <v>15</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="15">
         <v>90</v>
       </c>
-      <c r="D126" s="17">
+      <c r="D126" s="15">
         <v>170</v>
       </c>
-      <c r="E126" s="17">
+      <c r="E126" s="15">
         <v>210</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="15">
         <v>240</v>
       </c>
-      <c r="G126" s="17">
+      <c r="G126" s="15">
         <v>245</v>
       </c>
-      <c r="H126" s="17">
+      <c r="H126" s="15">
         <v>255</v>
       </c>
-      <c r="I126" s="17">
+      <c r="I126" s="15">
         <v>225</v>
       </c>
-      <c r="J126" s="17">
+      <c r="J126" s="15">
         <v>135</v>
       </c>
-      <c r="K126" s="17">
+      <c r="K126" s="15">
         <v>80</v>
       </c>
-      <c r="L126" s="18">
-        <f>SUM(B126:K126)</f>
+      <c r="L126" s="16">
+        <f t="shared" si="3"/>
         <v>1665</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
+    <row r="127" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="15">
         <v>50</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="15">
         <v>180</v>
       </c>
-      <c r="D127" s="17">
+      <c r="D127" s="15">
         <v>275</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="15">
         <v>250</v>
       </c>
-      <c r="F127" s="17">
+      <c r="F127" s="15">
         <v>220</v>
       </c>
-      <c r="G127" s="17">
+      <c r="G127" s="15">
         <v>260</v>
       </c>
-      <c r="H127" s="17">
+      <c r="H127" s="15">
         <v>180</v>
       </c>
-      <c r="I127" s="17">
+      <c r="I127" s="15">
         <v>145</v>
       </c>
-      <c r="J127" s="17">
+      <c r="J127" s="15">
         <v>75</v>
       </c>
-      <c r="K127" s="17">
+      <c r="K127" s="15">
         <v>35</v>
       </c>
-      <c r="L127" s="18">
-        <f>SUM(B127:K127)</f>
+      <c r="L127" s="16">
+        <f t="shared" si="3"/>
         <v>1670</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="15">
         <v>40</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="15">
         <v>120</v>
       </c>
-      <c r="D128" s="17">
+      <c r="D128" s="15">
         <v>215</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="15">
         <v>240</v>
       </c>
-      <c r="F128" s="17">
+      <c r="F128" s="15">
         <v>220</v>
       </c>
-      <c r="G128" s="17">
+      <c r="G128" s="15">
         <v>220</v>
       </c>
-      <c r="H128" s="17">
+      <c r="H128" s="15">
         <v>220</v>
       </c>
-      <c r="I128" s="17">
+      <c r="I128" s="15">
         <v>210</v>
       </c>
-      <c r="J128" s="17">
+      <c r="J128" s="15">
         <v>120</v>
       </c>
-      <c r="K128" s="17">
+      <c r="K128" s="15">
         <v>80</v>
       </c>
-      <c r="L128" s="18">
-        <f>SUM(B128:K128)</f>
+      <c r="L128" s="16">
+        <f t="shared" si="3"/>
         <v>1685</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
+    <row r="129" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="17">
+      <c r="B129" s="15">
         <v>155</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="15">
         <v>325</v>
       </c>
-      <c r="D129" s="17">
+      <c r="D129" s="15">
         <v>310</v>
       </c>
-      <c r="E129" s="17">
+      <c r="E129" s="15">
         <v>235</v>
       </c>
-      <c r="F129" s="17">
+      <c r="F129" s="15">
         <v>170</v>
       </c>
-      <c r="G129" s="17">
+      <c r="G129" s="15">
         <v>155</v>
       </c>
-      <c r="H129" s="17">
+      <c r="H129" s="15">
         <v>125</v>
       </c>
-      <c r="I129" s="17">
+      <c r="I129" s="15">
         <v>90</v>
       </c>
-      <c r="J129" s="17">
+      <c r="J129" s="15">
         <v>70</v>
       </c>
-      <c r="K129" s="17">
+      <c r="K129" s="15">
         <v>80</v>
       </c>
-      <c r="L129" s="18">
-        <f>SUM(B129:K129)</f>
+      <c r="L129" s="16">
+        <f t="shared" si="3"/>
         <v>1715</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
+    <row r="130" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="15">
         <v>50</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="15">
         <v>135</v>
       </c>
-      <c r="D130" s="17">
+      <c r="D130" s="15">
         <v>175</v>
       </c>
-      <c r="E130" s="17">
+      <c r="E130" s="15">
         <v>220</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="15">
         <v>235</v>
       </c>
-      <c r="G130" s="17">
+      <c r="G130" s="15">
         <v>270</v>
       </c>
-      <c r="H130" s="17">
+      <c r="H130" s="15">
         <v>260</v>
       </c>
-      <c r="I130" s="17">
+      <c r="I130" s="15">
         <v>215</v>
       </c>
-      <c r="J130" s="17">
+      <c r="J130" s="15">
         <v>110</v>
       </c>
-      <c r="K130" s="17">
+      <c r="K130" s="15">
         <v>50</v>
       </c>
-      <c r="L130" s="18">
-        <f>SUM(B130:K130)</f>
+      <c r="L130" s="16">
+        <f t="shared" ref="L130:L161" si="4">SUM(B130:K130)</f>
         <v>1720</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
+    <row r="131" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B131" s="17">
+      <c r="B131" s="15">
         <v>30</v>
       </c>
-      <c r="C131" s="17">
+      <c r="C131" s="15">
         <v>110</v>
       </c>
-      <c r="D131" s="17">
+      <c r="D131" s="15">
         <v>215</v>
       </c>
-      <c r="E131" s="17">
+      <c r="E131" s="15">
         <v>230</v>
       </c>
-      <c r="F131" s="17">
+      <c r="F131" s="15">
         <v>245</v>
       </c>
-      <c r="G131" s="17">
+      <c r="G131" s="15">
         <v>275</v>
       </c>
-      <c r="H131" s="17">
+      <c r="H131" s="15">
         <v>270</v>
       </c>
-      <c r="I131" s="17">
+      <c r="I131" s="15">
         <v>215</v>
       </c>
-      <c r="J131" s="17">
+      <c r="J131" s="15">
         <v>140</v>
       </c>
-      <c r="K131" s="17">
+      <c r="K131" s="15">
         <v>50</v>
       </c>
-      <c r="L131" s="18">
-        <f>SUM(B131:K131)</f>
+      <c r="L131" s="16">
+        <f t="shared" si="4"/>
         <v>1780</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
+    <row r="132" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B132" s="17">
+      <c r="B132" s="15">
         <v>35</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="15">
         <v>245</v>
       </c>
-      <c r="D132" s="17">
+      <c r="D132" s="15">
         <v>320</v>
       </c>
-      <c r="E132" s="17">
+      <c r="E132" s="15">
         <v>325</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F132" s="15">
         <v>250</v>
       </c>
-      <c r="G132" s="17">
+      <c r="G132" s="15">
         <v>215</v>
       </c>
-      <c r="H132" s="17">
+      <c r="H132" s="15">
         <v>205</v>
       </c>
-      <c r="I132" s="17">
+      <c r="I132" s="15">
         <v>120</v>
       </c>
-      <c r="J132" s="17">
+      <c r="J132" s="15">
         <v>65</v>
       </c>
-      <c r="K132" s="17">
+      <c r="K132" s="15">
         <v>15</v>
       </c>
-      <c r="L132" s="18">
-        <f>SUM(B132:K132)</f>
+      <c r="L132" s="16">
+        <f t="shared" si="4"/>
         <v>1795</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="16" t="s">
+    <row r="133" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="15">
         <v>30</v>
       </c>
-      <c r="C133" s="17">
+      <c r="C133" s="15">
         <v>175</v>
       </c>
-      <c r="D133" s="17">
+      <c r="D133" s="15">
         <v>290</v>
       </c>
-      <c r="E133" s="17">
+      <c r="E133" s="15">
         <v>270</v>
       </c>
-      <c r="F133" s="17">
+      <c r="F133" s="15">
         <v>265</v>
       </c>
-      <c r="G133" s="17">
+      <c r="G133" s="15">
         <v>190</v>
       </c>
-      <c r="H133" s="17">
+      <c r="H133" s="15">
         <v>205</v>
       </c>
-      <c r="I133" s="17">
+      <c r="I133" s="15">
         <v>160</v>
       </c>
-      <c r="J133" s="17">
+      <c r="J133" s="15">
         <v>110</v>
       </c>
-      <c r="K133" s="17">
+      <c r="K133" s="15">
         <v>100</v>
       </c>
-      <c r="L133" s="18">
-        <f>SUM(B133:K133)</f>
+      <c r="L133" s="16">
+        <f t="shared" si="4"/>
         <v>1795</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B134" s="17">
+      <c r="B134" s="15">
         <v>15</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="15">
         <v>230</v>
       </c>
-      <c r="D134" s="17">
+      <c r="D134" s="15">
         <v>310</v>
       </c>
-      <c r="E134" s="17">
+      <c r="E134" s="15">
         <v>320</v>
       </c>
-      <c r="F134" s="17">
+      <c r="F134" s="15">
         <v>235</v>
       </c>
-      <c r="G134" s="17">
+      <c r="G134" s="15">
         <v>245</v>
       </c>
-      <c r="H134" s="17">
+      <c r="H134" s="15">
         <v>220</v>
       </c>
-      <c r="I134" s="17">
+      <c r="I134" s="15">
         <v>165</v>
       </c>
-      <c r="J134" s="17">
+      <c r="J134" s="15">
         <v>70</v>
       </c>
-      <c r="K134" s="17">
+      <c r="K134" s="15">
         <v>50</v>
       </c>
-      <c r="L134" s="18">
-        <f>SUM(B134:K134)</f>
+      <c r="L134" s="16">
+        <f t="shared" si="4"/>
         <v>1860</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
+    <row r="135" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B135" s="17">
+      <c r="B135" s="15">
         <v>60</v>
       </c>
-      <c r="C135" s="17">
+      <c r="C135" s="15">
         <v>150</v>
       </c>
-      <c r="D135" s="17">
+      <c r="D135" s="15">
         <v>195</v>
       </c>
-      <c r="E135" s="17">
+      <c r="E135" s="15">
         <v>225</v>
       </c>
-      <c r="F135" s="17">
+      <c r="F135" s="15">
         <v>210</v>
       </c>
-      <c r="G135" s="17">
+      <c r="G135" s="15">
         <v>250</v>
       </c>
-      <c r="H135" s="17">
+      <c r="H135" s="15">
         <v>265</v>
       </c>
-      <c r="I135" s="17">
+      <c r="I135" s="15">
         <v>265</v>
       </c>
-      <c r="J135" s="17">
+      <c r="J135" s="15">
         <v>195</v>
       </c>
-      <c r="K135" s="17">
+      <c r="K135" s="15">
         <v>110</v>
       </c>
-      <c r="L135" s="18">
-        <f>SUM(B135:K135)</f>
+      <c r="L135" s="16">
+        <f t="shared" si="4"/>
         <v>1925</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
+    <row r="136" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="17">
+      <c r="B136" s="15">
         <v>50</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="15">
         <v>195</v>
       </c>
-      <c r="D136" s="17">
+      <c r="D136" s="15">
         <v>240</v>
       </c>
-      <c r="E136" s="17">
+      <c r="E136" s="15">
         <v>260</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="15">
         <v>255</v>
       </c>
-      <c r="G136" s="17">
+      <c r="G136" s="15">
         <v>275</v>
       </c>
-      <c r="H136" s="17">
+      <c r="H136" s="15">
         <v>245</v>
       </c>
-      <c r="I136" s="17">
+      <c r="I136" s="15">
         <v>205</v>
       </c>
-      <c r="J136" s="17">
+      <c r="J136" s="15">
         <v>130</v>
       </c>
-      <c r="K136" s="17">
+      <c r="K136" s="15">
         <v>75</v>
       </c>
-      <c r="L136" s="18">
-        <f>SUM(B136:K136)</f>
+      <c r="L136" s="16">
+        <f t="shared" si="4"/>
         <v>1930</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
+    <row r="137" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B137" s="17">
+      <c r="B137" s="15">
         <v>100</v>
       </c>
-      <c r="C137" s="17">
+      <c r="C137" s="15">
         <v>295</v>
       </c>
-      <c r="D137" s="17">
+      <c r="D137" s="15">
         <v>360</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E137" s="15">
         <v>290</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F137" s="15">
         <v>260</v>
       </c>
-      <c r="G137" s="17">
+      <c r="G137" s="15">
         <v>215</v>
       </c>
-      <c r="H137" s="17">
+      <c r="H137" s="15">
         <v>195</v>
       </c>
-      <c r="I137" s="17">
+      <c r="I137" s="15">
         <v>140</v>
       </c>
-      <c r="J137" s="17">
+      <c r="J137" s="15">
         <v>85</v>
       </c>
-      <c r="K137" s="17">
+      <c r="K137" s="15">
         <v>70</v>
       </c>
-      <c r="L137" s="18">
-        <f>SUM(B137:K137)</f>
+      <c r="L137" s="16">
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="25" t="s">
+    <row r="138" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="24">
         <v>15</v>
       </c>
-      <c r="C138" s="26">
+      <c r="C138" s="24">
         <v>125</v>
       </c>
-      <c r="D138" s="26">
+      <c r="D138" s="24">
         <v>205</v>
       </c>
-      <c r="E138" s="26">
+      <c r="E138" s="24">
         <v>295</v>
       </c>
-      <c r="F138" s="26">
+      <c r="F138" s="24">
         <v>260</v>
       </c>
-      <c r="G138" s="26">
+      <c r="G138" s="24">
         <v>335</v>
       </c>
-      <c r="H138" s="26">
+      <c r="H138" s="24">
         <v>325</v>
       </c>
-      <c r="I138" s="26">
+      <c r="I138" s="24">
         <v>255</v>
       </c>
-      <c r="J138" s="26">
+      <c r="J138" s="24">
         <v>155</v>
       </c>
-      <c r="K138" s="26">
+      <c r="K138" s="24">
         <v>55</v>
       </c>
-      <c r="L138" s="27">
-        <f>SUM(B138:K138)</f>
+      <c r="L138" s="25">
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
+    <row r="139" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B139" s="26">
+      <c r="B139" s="24">
         <v>150</v>
       </c>
-      <c r="C139" s="26">
+      <c r="C139" s="24">
         <v>240</v>
       </c>
-      <c r="D139" s="26">
+      <c r="D139" s="24">
         <v>290</v>
       </c>
-      <c r="E139" s="26">
+      <c r="E139" s="24">
         <v>300</v>
       </c>
-      <c r="F139" s="26">
+      <c r="F139" s="24">
         <v>220</v>
       </c>
-      <c r="G139" s="26">
+      <c r="G139" s="24">
         <v>255</v>
       </c>
-      <c r="H139" s="26">
+      <c r="H139" s="24">
         <v>230</v>
       </c>
-      <c r="I139" s="26">
+      <c r="I139" s="24">
         <v>165</v>
       </c>
-      <c r="J139" s="26">
+      <c r="J139" s="24">
         <v>125</v>
       </c>
-      <c r="K139" s="26">
+      <c r="K139" s="24">
         <v>55</v>
       </c>
-      <c r="L139" s="27">
-        <f>SUM(B139:K139)</f>
+      <c r="L139" s="25">
+        <f t="shared" si="4"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
+    <row r="140" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B140" s="26">
+      <c r="B140" s="24">
         <v>65</v>
       </c>
-      <c r="C140" s="26">
+      <c r="C140" s="24">
         <v>170</v>
       </c>
-      <c r="D140" s="26">
+      <c r="D140" s="24">
         <v>275</v>
       </c>
-      <c r="E140" s="26">
+      <c r="E140" s="24">
         <v>285</v>
       </c>
-      <c r="F140" s="26">
+      <c r="F140" s="24">
         <v>270</v>
       </c>
-      <c r="G140" s="26">
+      <c r="G140" s="24">
         <v>295</v>
       </c>
-      <c r="H140" s="26">
+      <c r="H140" s="24">
         <v>305</v>
       </c>
-      <c r="I140" s="26">
+      <c r="I140" s="24">
         <v>230</v>
       </c>
-      <c r="J140" s="26">
+      <c r="J140" s="24">
         <v>105</v>
       </c>
-      <c r="K140" s="26">
+      <c r="K140" s="24">
         <v>50</v>
       </c>
-      <c r="L140" s="27">
-        <f>SUM(B140:K140)</f>
+      <c r="L140" s="25">
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="25" t="s">
+    <row r="141" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B141" s="26">
+      <c r="B141" s="24">
         <v>50</v>
       </c>
-      <c r="C141" s="26">
+      <c r="C141" s="24">
         <v>245</v>
       </c>
-      <c r="D141" s="26">
+      <c r="D141" s="24">
         <v>300</v>
       </c>
-      <c r="E141" s="26">
+      <c r="E141" s="24">
         <v>275</v>
       </c>
-      <c r="F141" s="26">
+      <c r="F141" s="24">
         <v>240</v>
       </c>
-      <c r="G141" s="26">
+      <c r="G141" s="24">
         <v>250</v>
       </c>
-      <c r="H141" s="26">
+      <c r="H141" s="24">
         <v>250</v>
       </c>
-      <c r="I141" s="26">
+      <c r="I141" s="24">
         <v>170</v>
       </c>
-      <c r="J141" s="26">
+      <c r="J141" s="24">
         <v>150</v>
       </c>
-      <c r="K141" s="26">
+      <c r="K141" s="24">
         <v>170</v>
       </c>
-      <c r="L141" s="27">
-        <f>SUM(B141:K141)</f>
+      <c r="L141" s="25">
+        <f t="shared" si="4"/>
         <v>2100</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
+    <row r="142" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B142" s="24">
         <v>265</v>
       </c>
-      <c r="C142" s="26">
+      <c r="C142" s="24">
         <v>295</v>
       </c>
-      <c r="D142" s="26">
+      <c r="D142" s="24">
         <v>360</v>
       </c>
-      <c r="E142" s="26">
+      <c r="E142" s="24">
         <v>285</v>
       </c>
-      <c r="F142" s="26">
+      <c r="F142" s="24">
         <v>190</v>
       </c>
-      <c r="G142" s="26">
+      <c r="G142" s="24">
         <v>210</v>
       </c>
-      <c r="H142" s="26">
+      <c r="H142" s="24">
         <v>195</v>
       </c>
-      <c r="I142" s="26">
+      <c r="I142" s="24">
         <v>145</v>
       </c>
-      <c r="J142" s="26">
+      <c r="J142" s="24">
         <v>90</v>
       </c>
-      <c r="K142" s="26">
+      <c r="K142" s="24">
         <v>75</v>
       </c>
-      <c r="L142" s="27">
-        <f>SUM(B142:K142)</f>
+      <c r="L142" s="25">
+        <f t="shared" si="4"/>
         <v>2110</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
+    <row r="143" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B143" s="26">
+      <c r="B143" s="24">
         <v>30</v>
       </c>
-      <c r="C143" s="26">
+      <c r="C143" s="24">
         <v>155</v>
       </c>
-      <c r="D143" s="26">
+      <c r="D143" s="24">
         <v>260</v>
       </c>
-      <c r="E143" s="26">
+      <c r="E143" s="24">
         <v>345</v>
       </c>
-      <c r="F143" s="26">
+      <c r="F143" s="24">
         <v>295</v>
       </c>
-      <c r="G143" s="26">
+      <c r="G143" s="24">
         <v>360</v>
       </c>
-      <c r="H143" s="26">
+      <c r="H143" s="24">
         <v>350</v>
       </c>
-      <c r="I143" s="26">
+      <c r="I143" s="24">
         <v>245</v>
       </c>
-      <c r="J143" s="26">
+      <c r="J143" s="24">
         <v>115</v>
       </c>
-      <c r="K143" s="26">
+      <c r="K143" s="24">
         <v>75</v>
       </c>
-      <c r="L143" s="27">
-        <f>SUM(B143:K143)</f>
+      <c r="L143" s="25">
+        <f t="shared" si="4"/>
         <v>2230</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="25" t="s">
+    <row r="144" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B144" s="24">
         <v>15</v>
       </c>
-      <c r="C144" s="26">
+      <c r="C144" s="24">
         <v>235</v>
       </c>
-      <c r="D144" s="26">
+      <c r="D144" s="24">
         <v>465</v>
       </c>
-      <c r="E144" s="26">
+      <c r="E144" s="24">
         <v>470</v>
       </c>
-      <c r="F144" s="26">
+      <c r="F144" s="24">
         <v>345</v>
       </c>
-      <c r="G144" s="26">
+      <c r="G144" s="24">
         <v>275</v>
       </c>
-      <c r="H144" s="26">
+      <c r="H144" s="24">
         <v>205</v>
       </c>
-      <c r="I144" s="26">
+      <c r="I144" s="24">
         <v>140</v>
       </c>
-      <c r="J144" s="26">
+      <c r="J144" s="24">
         <v>70</v>
       </c>
-      <c r="K144" s="26">
+      <c r="K144" s="24">
         <v>35</v>
       </c>
-      <c r="L144" s="27">
-        <f>SUM(B144:K144)</f>
+      <c r="L144" s="25">
+        <f t="shared" si="4"/>
         <v>2255</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="25" t="s">
+    <row r="145" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B145" s="26">
+      <c r="B145" s="24">
         <v>85</v>
       </c>
-      <c r="C145" s="26">
+      <c r="C145" s="24">
         <v>230</v>
       </c>
-      <c r="D145" s="26">
+      <c r="D145" s="24">
         <v>355</v>
       </c>
-      <c r="E145" s="26">
+      <c r="E145" s="24">
         <v>380</v>
       </c>
-      <c r="F145" s="26">
+      <c r="F145" s="24">
         <v>350</v>
       </c>
-      <c r="G145" s="26">
+      <c r="G145" s="24">
         <v>345</v>
       </c>
-      <c r="H145" s="26">
+      <c r="H145" s="24">
         <v>330</v>
       </c>
-      <c r="I145" s="26">
+      <c r="I145" s="24">
         <v>250</v>
       </c>
-      <c r="J145" s="26">
+      <c r="J145" s="24">
         <v>140</v>
       </c>
-      <c r="K145" s="26">
+      <c r="K145" s="24">
         <v>70</v>
       </c>
-      <c r="L145" s="27">
-        <f>SUM(B145:K145)</f>
+      <c r="L145" s="25">
+        <f t="shared" si="4"/>
         <v>2535</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="25" t="s">
+    <row r="146" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B146" s="26">
+      <c r="B146" s="24">
         <v>105</v>
       </c>
-      <c r="C146" s="26">
+      <c r="C146" s="24">
         <v>195</v>
       </c>
-      <c r="D146" s="26">
+      <c r="D146" s="24">
         <v>315</v>
       </c>
-      <c r="E146" s="26">
+      <c r="E146" s="24">
         <v>335</v>
       </c>
-      <c r="F146" s="26">
+      <c r="F146" s="24">
         <v>330</v>
       </c>
-      <c r="G146" s="26">
+      <c r="G146" s="24">
         <v>350</v>
       </c>
-      <c r="H146" s="26">
+      <c r="H146" s="24">
         <v>405</v>
       </c>
-      <c r="I146" s="26">
+      <c r="I146" s="24">
         <v>285</v>
       </c>
-      <c r="J146" s="26">
+      <c r="J146" s="24">
         <v>170</v>
       </c>
-      <c r="K146" s="26">
+      <c r="K146" s="24">
         <v>70</v>
       </c>
-      <c r="L146" s="27">
-        <f>SUM(B146:K146)</f>
+      <c r="L146" s="25">
+        <f t="shared" si="4"/>
         <v>2560</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25" t="s">
+    <row r="147" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="26">
+      <c r="B147" s="24">
         <v>25</v>
       </c>
-      <c r="C147" s="26">
+      <c r="C147" s="24">
         <v>320</v>
       </c>
-      <c r="D147" s="26">
+      <c r="D147" s="24">
         <v>485</v>
       </c>
-      <c r="E147" s="26">
+      <c r="E147" s="24">
         <v>455</v>
       </c>
-      <c r="F147" s="26">
+      <c r="F147" s="24">
         <v>410</v>
       </c>
-      <c r="G147" s="26">
+      <c r="G147" s="24">
         <v>355</v>
       </c>
-      <c r="H147" s="26">
+      <c r="H147" s="24">
         <v>355</v>
       </c>
-      <c r="I147" s="26">
+      <c r="I147" s="24">
         <v>265</v>
       </c>
-      <c r="J147" s="26">
+      <c r="J147" s="24">
         <v>160</v>
       </c>
-      <c r="K147" s="26">
+      <c r="K147" s="24">
         <v>60</v>
       </c>
-      <c r="L147" s="27">
-        <f>SUM(B147:K147)</f>
+      <c r="L147" s="25">
+        <f t="shared" si="4"/>
         <v>2890</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
+    <row r="148" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B148" s="24">
         <v>75</v>
       </c>
-      <c r="C148" s="26">
+      <c r="C148" s="24">
         <v>405</v>
       </c>
-      <c r="D148" s="26">
+      <c r="D148" s="24">
         <v>540</v>
       </c>
-      <c r="E148" s="26">
+      <c r="E148" s="24">
         <v>425</v>
       </c>
-      <c r="F148" s="26">
+      <c r="F148" s="24">
         <v>345</v>
       </c>
-      <c r="G148" s="26">
+      <c r="G148" s="24">
         <v>310</v>
       </c>
-      <c r="H148" s="26">
+      <c r="H148" s="24">
         <v>305</v>
       </c>
-      <c r="I148" s="26">
+      <c r="I148" s="24">
         <v>235</v>
       </c>
-      <c r="J148" s="26">
+      <c r="J148" s="24">
         <v>135</v>
       </c>
-      <c r="K148" s="26">
+      <c r="K148" s="24">
         <v>135</v>
       </c>
-      <c r="L148" s="27">
-        <f>SUM(B148:K148)</f>
+      <c r="L148" s="25">
+        <f t="shared" si="4"/>
         <v>2910</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25" t="s">
+    <row r="149" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B149" s="26">
+      <c r="B149" s="24">
         <v>70</v>
       </c>
-      <c r="C149" s="26">
+      <c r="C149" s="24">
         <v>385</v>
       </c>
-      <c r="D149" s="26">
+      <c r="D149" s="24">
         <v>520</v>
       </c>
-      <c r="E149" s="26">
+      <c r="E149" s="24">
         <v>495</v>
       </c>
-      <c r="F149" s="26">
+      <c r="F149" s="24">
         <v>385</v>
       </c>
-      <c r="G149" s="26">
+      <c r="G149" s="24">
         <v>330</v>
       </c>
-      <c r="H149" s="26">
+      <c r="H149" s="24">
         <v>310</v>
       </c>
-      <c r="I149" s="26">
+      <c r="I149" s="24">
         <v>235</v>
       </c>
-      <c r="J149" s="26">
+      <c r="J149" s="24">
         <v>140</v>
       </c>
-      <c r="K149" s="26">
+      <c r="K149" s="24">
         <v>75</v>
       </c>
-      <c r="L149" s="27">
-        <f>SUM(B149:K149)</f>
+      <c r="L149" s="25">
+        <f t="shared" si="4"/>
         <v>2945</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25" t="s">
+    <row r="150" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B150" s="26">
+      <c r="B150" s="24">
         <v>50</v>
       </c>
-      <c r="C150" s="26">
+      <c r="C150" s="24">
         <v>345</v>
       </c>
-      <c r="D150" s="26">
+      <c r="D150" s="24">
         <v>520</v>
       </c>
-      <c r="E150" s="26">
+      <c r="E150" s="24">
         <v>510</v>
       </c>
-      <c r="F150" s="26">
+      <c r="F150" s="24">
         <v>385</v>
       </c>
-      <c r="G150" s="26">
+      <c r="G150" s="24">
         <v>355</v>
       </c>
-      <c r="H150" s="26">
+      <c r="H150" s="24">
         <v>315</v>
       </c>
-      <c r="I150" s="26">
+      <c r="I150" s="24">
         <v>245</v>
       </c>
-      <c r="J150" s="26">
+      <c r="J150" s="24">
         <v>175</v>
       </c>
-      <c r="K150" s="26">
+      <c r="K150" s="24">
         <v>80</v>
       </c>
-      <c r="L150" s="27">
-        <f>SUM(B150:K150)</f>
+      <c r="L150" s="25">
+        <f t="shared" si="4"/>
         <v>2980</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25" t="s">
+    <row r="151" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B151" s="26">
+      <c r="B151" s="24">
         <v>285</v>
       </c>
-      <c r="C151" s="26">
+      <c r="C151" s="24">
         <v>565</v>
       </c>
-      <c r="D151" s="26">
+      <c r="D151" s="24">
         <v>555</v>
       </c>
-      <c r="E151" s="26">
+      <c r="E151" s="24">
         <v>460</v>
       </c>
-      <c r="F151" s="26">
+      <c r="F151" s="24">
         <v>320</v>
       </c>
-      <c r="G151" s="26">
+      <c r="G151" s="24">
         <v>270</v>
       </c>
-      <c r="H151" s="26">
+      <c r="H151" s="24">
         <v>225</v>
       </c>
-      <c r="I151" s="26">
+      <c r="I151" s="24">
         <v>190</v>
       </c>
-      <c r="J151" s="26">
+      <c r="J151" s="24">
         <v>115</v>
       </c>
-      <c r="K151" s="26">
+      <c r="K151" s="24">
         <v>110</v>
       </c>
-      <c r="L151" s="27">
-        <f>SUM(B151:K151)</f>
+      <c r="L151" s="25">
+        <f t="shared" si="4"/>
         <v>3095</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25" t="s">
+    <row r="152" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B152" s="26">
+      <c r="B152" s="24">
         <v>40</v>
       </c>
-      <c r="C152" s="26">
+      <c r="C152" s="24">
         <v>475</v>
       </c>
-      <c r="D152" s="26">
+      <c r="D152" s="24">
         <v>660</v>
       </c>
-      <c r="E152" s="26">
+      <c r="E152" s="24">
         <v>535</v>
       </c>
-      <c r="F152" s="26">
+      <c r="F152" s="24">
         <v>410</v>
       </c>
-      <c r="G152" s="26">
+      <c r="G152" s="24">
         <v>345</v>
       </c>
-      <c r="H152" s="26">
+      <c r="H152" s="24">
         <v>270</v>
       </c>
-      <c r="I152" s="26">
+      <c r="I152" s="24">
         <v>215</v>
       </c>
-      <c r="J152" s="26">
+      <c r="J152" s="24">
         <v>125</v>
       </c>
-      <c r="K152" s="26">
+      <c r="K152" s="24">
         <v>45</v>
       </c>
-      <c r="L152" s="27">
-        <f>SUM(B152:K152)</f>
+      <c r="L152" s="25">
+        <f t="shared" si="4"/>
         <v>3120</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="25" t="s">
+    <row r="153" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B153" s="26">
+      <c r="B153" s="24">
         <v>85</v>
       </c>
-      <c r="C153" s="26">
+      <c r="C153" s="24">
         <v>460</v>
       </c>
-      <c r="D153" s="26">
+      <c r="D153" s="24">
         <v>570</v>
       </c>
-      <c r="E153" s="26">
+      <c r="E153" s="24">
         <v>565</v>
       </c>
-      <c r="F153" s="26">
+      <c r="F153" s="24">
         <v>430</v>
       </c>
-      <c r="G153" s="26">
+      <c r="G153" s="24">
         <v>410</v>
       </c>
-      <c r="H153" s="26">
+      <c r="H153" s="24">
         <v>355</v>
       </c>
-      <c r="I153" s="26">
+      <c r="I153" s="24">
         <v>240</v>
       </c>
-      <c r="J153" s="26">
+      <c r="J153" s="24">
         <v>120</v>
       </c>
-      <c r="K153" s="26">
+      <c r="K153" s="24">
         <v>50</v>
       </c>
-      <c r="L153" s="27">
-        <f>SUM(B153:K153)</f>
+      <c r="L153" s="25">
+        <f t="shared" si="4"/>
         <v>3285</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="25" t="s">
+    <row r="154" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B154" s="26">
+      <c r="B154" s="24">
         <v>45</v>
       </c>
-      <c r="C154" s="26">
+      <c r="C154" s="24">
         <v>405</v>
       </c>
-      <c r="D154" s="26">
+      <c r="D154" s="24">
         <v>570</v>
       </c>
-      <c r="E154" s="26">
+      <c r="E154" s="24">
         <v>490</v>
       </c>
-      <c r="F154" s="26">
+      <c r="F154" s="24">
         <v>465</v>
       </c>
-      <c r="G154" s="26">
+      <c r="G154" s="24">
         <v>430</v>
       </c>
-      <c r="H154" s="26">
+      <c r="H154" s="24">
         <v>455</v>
       </c>
-      <c r="I154" s="26">
+      <c r="I154" s="24">
         <v>285</v>
       </c>
-      <c r="J154" s="26">
+      <c r="J154" s="24">
         <v>185</v>
       </c>
-      <c r="K154" s="26">
+      <c r="K154" s="24">
         <v>55</v>
       </c>
-      <c r="L154" s="27">
-        <f>SUM(B154:K154)</f>
+      <c r="L154" s="25">
+        <f t="shared" si="4"/>
         <v>3385</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
+    <row r="155" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B155" s="24">
         <v>55</v>
       </c>
-      <c r="C155" s="26">
+      <c r="C155" s="24">
         <v>370</v>
       </c>
-      <c r="D155" s="26">
+      <c r="D155" s="24">
         <v>605</v>
       </c>
-      <c r="E155" s="26">
+      <c r="E155" s="24">
         <v>600</v>
       </c>
-      <c r="F155" s="26">
+      <c r="F155" s="24">
         <v>460</v>
       </c>
-      <c r="G155" s="26">
+      <c r="G155" s="24">
         <v>455</v>
       </c>
-      <c r="H155" s="26">
+      <c r="H155" s="24">
         <v>420</v>
       </c>
-      <c r="I155" s="26">
+      <c r="I155" s="24">
         <v>275</v>
       </c>
-      <c r="J155" s="26">
+      <c r="J155" s="24">
         <v>180</v>
       </c>
-      <c r="K155" s="26">
+      <c r="K155" s="24">
         <v>85</v>
       </c>
-      <c r="L155" s="27">
-        <f>SUM(B155:K155)</f>
+      <c r="L155" s="25">
+        <f t="shared" si="4"/>
         <v>3505</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="25" t="s">
+    <row r="156" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="26">
+      <c r="B156" s="24">
         <v>40</v>
       </c>
-      <c r="C156" s="26">
+      <c r="C156" s="24">
         <v>345</v>
       </c>
-      <c r="D156" s="26">
+      <c r="D156" s="24">
         <v>560</v>
       </c>
-      <c r="E156" s="26">
+      <c r="E156" s="24">
         <v>525</v>
       </c>
-      <c r="F156" s="26">
+      <c r="F156" s="24">
         <v>500</v>
       </c>
-      <c r="G156" s="26">
+      <c r="G156" s="24">
         <v>475</v>
       </c>
-      <c r="H156" s="26">
+      <c r="H156" s="24">
         <v>465</v>
       </c>
-      <c r="I156" s="26">
+      <c r="I156" s="24">
         <v>310</v>
       </c>
-      <c r="J156" s="26">
+      <c r="J156" s="24">
         <v>175</v>
       </c>
-      <c r="K156" s="26">
+      <c r="K156" s="24">
         <v>120</v>
       </c>
-      <c r="L156" s="27">
-        <f>SUM(B156:K156)</f>
+      <c r="L156" s="25">
+        <f t="shared" si="4"/>
         <v>3515</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="25" t="s">
+    <row r="157" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="26">
+      <c r="B157" s="24">
         <v>225</v>
       </c>
-      <c r="C157" s="26">
+      <c r="C157" s="24">
         <v>520</v>
       </c>
-      <c r="D157" s="26">
+      <c r="D157" s="24">
         <v>705</v>
       </c>
-      <c r="E157" s="26">
+      <c r="E157" s="24">
         <v>625</v>
       </c>
-      <c r="F157" s="26">
+      <c r="F157" s="24">
         <v>480</v>
       </c>
-      <c r="G157" s="26">
+      <c r="G157" s="24">
         <v>435</v>
       </c>
-      <c r="H157" s="26">
+      <c r="H157" s="24">
         <v>340</v>
       </c>
-      <c r="I157" s="26">
+      <c r="I157" s="24">
         <v>280</v>
       </c>
-      <c r="J157" s="26">
+      <c r="J157" s="24">
         <v>180</v>
       </c>
-      <c r="K157" s="26">
+      <c r="K157" s="24">
         <v>85</v>
       </c>
-      <c r="L157" s="27">
-        <f>SUM(B157:K157)</f>
+      <c r="L157" s="25">
+        <f t="shared" si="4"/>
         <v>3875</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="25" t="s">
+    <row r="158" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B158" s="26">
+      <c r="B158" s="24">
         <v>345</v>
       </c>
-      <c r="C158" s="26">
+      <c r="C158" s="24">
         <v>600</v>
       </c>
-      <c r="D158" s="26">
+      <c r="D158" s="24">
         <v>730</v>
       </c>
-      <c r="E158" s="26">
+      <c r="E158" s="24">
         <v>595</v>
       </c>
-      <c r="F158" s="26">
+      <c r="F158" s="24">
         <v>440</v>
       </c>
-      <c r="G158" s="26">
+      <c r="G158" s="24">
         <v>390</v>
       </c>
-      <c r="H158" s="26">
+      <c r="H158" s="24">
         <v>365</v>
       </c>
-      <c r="I158" s="26">
+      <c r="I158" s="24">
         <v>270</v>
       </c>
-      <c r="J158" s="26">
+      <c r="J158" s="24">
         <v>155</v>
       </c>
-      <c r="K158" s="26">
+      <c r="K158" s="24">
         <v>85</v>
       </c>
-      <c r="L158" s="27">
-        <f>SUM(B158:K158)</f>
+      <c r="L158" s="25">
+        <f t="shared" si="4"/>
         <v>3975</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+    <row r="159" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B159" s="26">
+      <c r="B159" s="24">
         <v>110</v>
       </c>
-      <c r="C159" s="26">
+      <c r="C159" s="24">
         <v>845</v>
       </c>
-      <c r="D159" s="28">
+      <c r="D159" s="26">
         <v>1095</v>
       </c>
-      <c r="E159" s="26">
+      <c r="E159" s="24">
         <v>665</v>
       </c>
-      <c r="F159" s="26">
+      <c r="F159" s="24">
         <v>400</v>
       </c>
-      <c r="G159" s="26">
+      <c r="G159" s="24">
         <v>295</v>
       </c>
-      <c r="H159" s="26">
+      <c r="H159" s="24">
         <v>300</v>
       </c>
-      <c r="I159" s="26">
+      <c r="I159" s="24">
         <v>215</v>
       </c>
-      <c r="J159" s="26">
+      <c r="J159" s="24">
         <v>170</v>
       </c>
-      <c r="K159" s="26">
+      <c r="K159" s="24">
         <v>180</v>
       </c>
-      <c r="L159" s="27">
-        <f>SUM(B159:K159)</f>
+      <c r="L159" s="25">
+        <f t="shared" si="4"/>
         <v>4275</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="25" t="s">
+    <row r="160" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B160" s="26">
+      <c r="B160" s="24">
         <v>220</v>
       </c>
-      <c r="C160" s="26">
+      <c r="C160" s="24">
         <v>770</v>
       </c>
-      <c r="D160" s="28">
+      <c r="D160" s="26">
         <v>1030</v>
       </c>
-      <c r="E160" s="26">
+      <c r="E160" s="24">
         <v>825</v>
       </c>
-      <c r="F160" s="26">
+      <c r="F160" s="24">
         <v>565</v>
       </c>
-      <c r="G160" s="26">
+      <c r="G160" s="24">
         <v>455</v>
       </c>
-      <c r="H160" s="26">
+      <c r="H160" s="24">
         <v>450</v>
       </c>
-      <c r="I160" s="26">
+      <c r="I160" s="24">
         <v>300</v>
       </c>
-      <c r="J160" s="26">
+      <c r="J160" s="24">
         <v>210</v>
       </c>
-      <c r="K160" s="26">
+      <c r="K160" s="24">
         <v>140</v>
       </c>
-      <c r="L160" s="27">
-        <f>SUM(B160:K160)</f>
+      <c r="L160" s="25">
+        <f t="shared" si="4"/>
         <v>4965</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="25" t="s">
+    <row r="161" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B161" s="26">
-        <v>5</v>
-      </c>
-      <c r="C161" s="26">
+      <c r="B161" s="24">
+        <v>5</v>
+      </c>
+      <c r="C161" s="24">
         <v>85</v>
       </c>
-      <c r="D161" s="26">
+      <c r="D161" s="24">
         <v>210</v>
       </c>
-      <c r="E161" s="26">
+      <c r="E161" s="24">
         <v>415</v>
       </c>
-      <c r="F161" s="26">
+      <c r="F161" s="24">
         <v>480</v>
       </c>
-      <c r="G161" s="26">
+      <c r="G161" s="24">
         <v>715</v>
       </c>
-      <c r="H161" s="26">
+      <c r="H161" s="24">
         <v>840</v>
       </c>
-      <c r="I161" s="26">
+      <c r="I161" s="24">
         <v>865</v>
       </c>
-      <c r="J161" s="26">
+      <c r="J161" s="24">
         <v>725</v>
       </c>
-      <c r="K161" s="26">
+      <c r="K161" s="24">
         <v>660</v>
       </c>
-      <c r="L161" s="27">
-        <f>SUM(B161:K161)</f>
+      <c r="L161" s="25">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+    <row r="162" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B162" s="26">
+      <c r="B162" s="24">
         <v>55</v>
       </c>
-      <c r="C162" s="26">
+      <c r="C162" s="24">
         <v>635</v>
       </c>
-      <c r="D162" s="26">
+      <c r="D162" s="24">
         <v>990</v>
       </c>
-      <c r="E162" s="26">
+      <c r="E162" s="24">
         <v>840</v>
       </c>
-      <c r="F162" s="26">
+      <c r="F162" s="24">
         <v>655</v>
       </c>
-      <c r="G162" s="26">
+      <c r="G162" s="24">
         <v>580</v>
       </c>
-      <c r="H162" s="26">
+      <c r="H162" s="24">
         <v>565</v>
       </c>
-      <c r="I162" s="26">
+      <c r="I162" s="24">
         <v>430</v>
       </c>
-      <c r="J162" s="26">
+      <c r="J162" s="24">
         <v>220</v>
       </c>
-      <c r="K162" s="26">
+      <c r="K162" s="24">
         <v>150</v>
       </c>
-      <c r="L162" s="27">
-        <f>SUM(B162:K162)</f>
+      <c r="L162" s="25">
+        <f t="shared" ref="L162:L193" si="5">SUM(B162:K162)</f>
         <v>5120</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25" t="s">
+    <row r="163" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B163" s="26">
+      <c r="B163" s="24">
         <v>190</v>
       </c>
-      <c r="C163" s="28">
+      <c r="C163" s="26">
         <v>1040</v>
       </c>
-      <c r="D163" s="28">
+      <c r="D163" s="26">
         <v>1410</v>
       </c>
-      <c r="E163" s="28">
+      <c r="E163" s="26">
         <v>1035</v>
       </c>
-      <c r="F163" s="26">
+      <c r="F163" s="24">
         <v>690</v>
       </c>
-      <c r="G163" s="26">
+      <c r="G163" s="24">
         <v>515</v>
       </c>
-      <c r="H163" s="26">
+      <c r="H163" s="24">
         <v>490</v>
       </c>
-      <c r="I163" s="26">
+      <c r="I163" s="24">
         <v>365</v>
       </c>
-      <c r="J163" s="26">
+      <c r="J163" s="24">
         <v>275</v>
       </c>
-      <c r="K163" s="26">
+      <c r="K163" s="24">
         <v>105</v>
       </c>
-      <c r="L163" s="27">
-        <f>SUM(B163:K163)</f>
+      <c r="L163" s="25">
+        <f t="shared" si="5"/>
         <v>6115</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="25" t="s">
+    <row r="164" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B164" s="26">
+      <c r="B164" s="24">
         <v>155</v>
       </c>
-      <c r="C164" s="28">
+      <c r="C164" s="26">
         <v>1055</v>
       </c>
-      <c r="D164" s="28">
+      <c r="D164" s="26">
         <v>1540</v>
       </c>
-      <c r="E164" s="28">
+      <c r="E164" s="26">
         <v>1130</v>
       </c>
-      <c r="F164" s="26">
+      <c r="F164" s="24">
         <v>760</v>
       </c>
-      <c r="G164" s="26">
+      <c r="G164" s="24">
         <v>650</v>
       </c>
-      <c r="H164" s="26">
+      <c r="H164" s="24">
         <v>515</v>
       </c>
-      <c r="I164" s="26">
+      <c r="I164" s="24">
         <v>435</v>
       </c>
-      <c r="J164" s="26">
+      <c r="J164" s="24">
         <v>310</v>
       </c>
-      <c r="K164" s="26">
+      <c r="K164" s="24">
         <v>75</v>
       </c>
-      <c r="L164" s="27">
-        <f>SUM(B164:K164)</f>
+      <c r="L164" s="25">
+        <f t="shared" si="5"/>
         <v>6625</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="25" t="s">
+    <row r="165" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B165" s="26">
+      <c r="B165" s="24">
         <v>690</v>
       </c>
-      <c r="C165" s="28">
+      <c r="C165" s="26">
         <v>1340</v>
       </c>
-      <c r="D165" s="28">
+      <c r="D165" s="26">
         <v>1305</v>
       </c>
-      <c r="E165" s="26">
+      <c r="E165" s="24">
         <v>975</v>
       </c>
-      <c r="F165" s="26">
+      <c r="F165" s="24">
         <v>730</v>
       </c>
-      <c r="G165" s="26">
+      <c r="G165" s="24">
         <v>635</v>
       </c>
-      <c r="H165" s="26">
+      <c r="H165" s="24">
         <v>525</v>
       </c>
-      <c r="I165" s="26">
+      <c r="I165" s="24">
         <v>385</v>
       </c>
-      <c r="J165" s="26">
+      <c r="J165" s="24">
         <v>280</v>
       </c>
-      <c r="K165" s="26">
+      <c r="K165" s="24">
         <v>135</v>
       </c>
-      <c r="L165" s="27">
-        <f>SUM(B165:K165)</f>
+      <c r="L165" s="25">
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="25" t="s">
+    <row r="166" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B166" s="26">
+      <c r="B166" s="24">
         <v>215</v>
       </c>
-      <c r="C166" s="28">
+      <c r="C166" s="26">
         <v>1120</v>
       </c>
-      <c r="D166" s="28">
+      <c r="D166" s="26">
         <v>1635</v>
       </c>
-      <c r="E166" s="28">
+      <c r="E166" s="26">
         <v>1250</v>
       </c>
-      <c r="F166" s="26">
+      <c r="F166" s="24">
         <v>940</v>
       </c>
-      <c r="G166" s="26">
+      <c r="G166" s="24">
         <v>730</v>
       </c>
-      <c r="H166" s="26">
+      <c r="H166" s="24">
         <v>665</v>
       </c>
-      <c r="I166" s="26">
+      <c r="I166" s="24">
         <v>495</v>
       </c>
-      <c r="J166" s="26">
+      <c r="J166" s="24">
         <v>340</v>
       </c>
-      <c r="K166" s="26">
+      <c r="K166" s="24">
         <v>280</v>
       </c>
-      <c r="L166" s="27">
-        <f>SUM(B166:K166)</f>
+      <c r="L166" s="25">
+        <f t="shared" si="5"/>
         <v>7670</v>
       </c>
     </row>
@@ -9073,47 +9253,47 @@
         <v>173</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" ref="B167:K167" si="0">SUM(B2:B166)</f>
+        <f t="shared" ref="B167:K167" si="6">SUM(B2:B166)</f>
         <v>6250</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>22875</v>
       </c>
       <c r="D167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32610</v>
       </c>
       <c r="E167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31230</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26755</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26675</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>25950</v>
       </c>
       <c r="I167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>20155</v>
       </c>
       <c r="J167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12145</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7425</v>
       </c>
       <c r="L167">
-        <f t="shared" ref="L162:L193" si="1">SUM(B167:K167)</f>
+        <f t="shared" ref="L167" si="7">SUM(B167:K167)</f>
         <v>212070</v>
       </c>
       <c r="M167" s="1"/>
@@ -9209,8 +9389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9227,25 +9407,25 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
@@ -9534,25 +9714,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>174</v>
       </c>
@@ -9848,7 +10028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
